--- a/dinghies.xlsx
+++ b/dinghies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soarsi\workspace\github\dinghyapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933BA72B-DE0E-49D9-85A2-14162EDC07BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561202A5-E571-49CF-8373-350BC30F4B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="2730" windowWidth="19755" windowHeight="11295" activeTab="4" xr2:uid="{424A2331-99F2-4D2E-BF59-9192B1CDA9D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{424A2331-99F2-4D2E-BF59-9192B1CDA9D6}"/>
   </bookViews>
   <sheets>
     <sheet name="RS" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="116">
   <si>
     <t>name</t>
   </si>
@@ -93,51 +93,21 @@
     <t>Una</t>
   </si>
   <si>
-    <t>rs-tera-logo.jpg</t>
-  </si>
-  <si>
-    <t>rs-tera-image.jpg</t>
-  </si>
-  <si>
     <t>RS Tera Sport</t>
   </si>
   <si>
     <t>RS Aero 5</t>
   </si>
   <si>
-    <t>rs-aero5-logo.jpg</t>
-  </si>
-  <si>
-    <t>rs-aero5-image.jpg</t>
-  </si>
-  <si>
     <t>RS Aero 6</t>
   </si>
   <si>
-    <t>rs-aero6-logo.jpg</t>
-  </si>
-  <si>
-    <t>rs-aero6-image.jpg</t>
-  </si>
-  <si>
     <t>RS Aero 7</t>
   </si>
   <si>
-    <t>rs-aero7-logo.jpg</t>
-  </si>
-  <si>
-    <t>rs-aero7-image.jpg</t>
-  </si>
-  <si>
     <t>RS Aero 9</t>
   </si>
   <si>
-    <t>rs-aero9-logo.jpg</t>
-  </si>
-  <si>
-    <t>rs-aero9-image.jpg</t>
-  </si>
-  <si>
     <t>RS Feva XL</t>
   </si>
   <si>
@@ -415,6 +385,9 @@
   </si>
   <si>
     <t>Other Nacras</t>
+  </si>
+  <si>
+    <t>International 14</t>
   </si>
 </sst>
 </file>
@@ -795,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170DDF5A-0F38-402E-9EB4-88FDC06AA77D}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,7 +807,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -852,7 +825,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
@@ -899,21 +872,18 @@
         <v>2.87</v>
       </c>
       <c r="K2">
-        <v>1.22</v>
+        <v>1.23</v>
+      </c>
+      <c r="L2">
+        <v>43</v>
       </c>
       <c r="M2">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="O2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" t="s">
-        <v>18</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -943,21 +913,18 @@
         <v>2.87</v>
       </c>
       <c r="K3">
-        <v>1.22</v>
+        <v>1.23</v>
+      </c>
+      <c r="L3">
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="O3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" t="s">
-        <v>18</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -989,19 +956,16 @@
       <c r="K4">
         <v>1.4</v>
       </c>
+      <c r="L4">
+        <v>33</v>
+      </c>
       <c r="M4">
         <v>5.2</v>
       </c>
-      <c r="O4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -1033,19 +997,16 @@
       <c r="K5">
         <v>1.4</v>
       </c>
+      <c r="L5">
+        <v>33</v>
+      </c>
       <c r="M5">
-        <v>5.2</v>
-      </c>
-      <c r="O5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" t="s">
-        <v>25</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -1077,19 +1038,16 @@
       <c r="K6">
         <v>1.4</v>
       </c>
+      <c r="L6">
+        <v>33</v>
+      </c>
       <c r="M6">
-        <v>5.2</v>
-      </c>
-      <c r="O6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" t="s">
-        <v>28</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -1121,19 +1079,16 @@
       <c r="K7">
         <v>1.4</v>
       </c>
+      <c r="L7">
+        <v>33</v>
+      </c>
       <c r="M7">
-        <v>5.2</v>
-      </c>
-      <c r="O7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" t="s">
-        <v>31</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -1145,7 +1100,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1158,11 +1113,26 @@
       </c>
       <c r="I8">
         <v>0</v>
+      </c>
+      <c r="J8">
+        <v>3.64</v>
+      </c>
+      <c r="K8">
+        <v>1.42</v>
+      </c>
+      <c r="L8">
+        <v>73</v>
+      </c>
+      <c r="M8">
+        <v>8.6</v>
+      </c>
+      <c r="N8">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -1188,10 +1158,25 @@
       <c r="I9">
         <v>0</v>
       </c>
+      <c r="J9">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="K9">
+        <v>1.57</v>
+      </c>
+      <c r="L9">
+        <v>70</v>
+      </c>
+      <c r="M9">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N9">
+        <v>9.9</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -1203,7 +1188,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1216,11 +1201,26 @@
       </c>
       <c r="I10">
         <v>0</v>
+      </c>
+      <c r="J10">
+        <v>4.57</v>
+      </c>
+      <c r="K10">
+        <v>1.73</v>
+      </c>
+      <c r="L10">
+        <v>125</v>
+      </c>
+      <c r="M10">
+        <v>11.9</v>
+      </c>
+      <c r="N10">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -1246,10 +1246,25 @@
       <c r="I11">
         <v>0</v>
       </c>
+      <c r="J11">
+        <v>4.3</v>
+      </c>
+      <c r="K11">
+        <v>1.83</v>
+      </c>
+      <c r="L11">
+        <v>52</v>
+      </c>
+      <c r="M11">
+        <v>8.4</v>
+      </c>
+      <c r="N11">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1272,10 +1287,25 @@
       <c r="I12">
         <v>0</v>
       </c>
+      <c r="J12">
+        <v>4.3</v>
+      </c>
+      <c r="K12">
+        <v>1.83</v>
+      </c>
+      <c r="L12">
+        <v>52</v>
+      </c>
+      <c r="M12">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="N12">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -1287,7 +1317,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1300,11 +1330,26 @@
       </c>
       <c r="I13">
         <v>0</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>1.83</v>
+      </c>
+      <c r="L13">
+        <v>78</v>
+      </c>
+      <c r="M13">
+        <v>11.89</v>
+      </c>
+      <c r="N13">
+        <v>8.2899999999999991</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1330,10 +1375,22 @@
       <c r="I14">
         <v>0</v>
       </c>
+      <c r="J14">
+        <v>4.24</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>58</v>
+      </c>
+      <c r="M14">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -1345,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1358,11 +1415,26 @@
       </c>
       <c r="I15">
         <v>0</v>
+      </c>
+      <c r="J15">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="K15">
+        <v>1.98</v>
+      </c>
+      <c r="L15">
+        <v>88</v>
+      </c>
+      <c r="M15">
+        <v>14.76</v>
+      </c>
+      <c r="N15">
+        <v>13.94</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -1374,7 +1446,7 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1388,10 +1460,25 @@
       <c r="I16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>4.34</v>
+      </c>
+      <c r="K16">
+        <v>1.58</v>
+      </c>
+      <c r="L16">
+        <v>87</v>
+      </c>
+      <c r="M16">
+        <v>13.1</v>
+      </c>
+      <c r="N16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -1417,10 +1504,22 @@
       <c r="I17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>4.47</v>
+      </c>
+      <c r="K17">
+        <v>1.93</v>
+      </c>
+      <c r="L17">
+        <v>52</v>
+      </c>
+      <c r="M17">
+        <v>12.14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -1446,10 +1545,25 @@
       <c r="I18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>4.68</v>
+      </c>
+      <c r="K18">
+        <v>1.92</v>
+      </c>
+      <c r="L18">
+        <v>49</v>
+      </c>
+      <c r="M18">
+        <v>12.8</v>
+      </c>
+      <c r="N18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -1461,7 +1575,7 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1475,108 +1589,347 @@
       <c r="I19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>4.8</v>
+      </c>
+      <c r="K19">
+        <v>1.89</v>
+      </c>
+      <c r="L19">
+        <v>68</v>
+      </c>
+      <c r="M19">
+        <v>16.5</v>
+      </c>
+      <c r="N19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
       <c r="F20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>3.59</v>
+      </c>
+      <c r="K20">
+        <v>1.47</v>
+      </c>
+      <c r="L20">
+        <v>73</v>
+      </c>
+      <c r="M20">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
       <c r="F21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>4.29</v>
+      </c>
+      <c r="K21">
+        <v>1.83</v>
+      </c>
+      <c r="L21">
+        <v>140</v>
+      </c>
+      <c r="M21">
+        <v>11.1</v>
+      </c>
+      <c r="N21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
       <c r="F22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>4.63</v>
+      </c>
+      <c r="K22">
+        <v>1.95</v>
+      </c>
+      <c r="L22">
+        <v>175</v>
+      </c>
+      <c r="M22">
+        <v>13.9</v>
+      </c>
+      <c r="N22">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
       <c r="F23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>3.53</v>
+      </c>
+      <c r="K23">
+        <v>1.42</v>
+      </c>
+      <c r="L23">
+        <v>64</v>
+      </c>
+      <c r="M23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
       <c r="F24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>195</v>
+      </c>
+      <c r="M24">
+        <v>12.8</v>
+      </c>
+      <c r="N24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
       <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>4.7</v>
+      </c>
+      <c r="K25">
+        <v>2.35</v>
+      </c>
+      <c r="L25">
+        <v>94</v>
+      </c>
+      <c r="M25">
+        <v>12.33</v>
+      </c>
+      <c r="N25">
+        <v>12.82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
       <c r="F26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>51</v>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>4.25</v>
+      </c>
+      <c r="K26">
+        <v>2.14</v>
+      </c>
+      <c r="L26">
+        <v>80</v>
+      </c>
+      <c r="M26">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="N26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2000</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
       <c r="F27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2000</v>
-      </c>
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K27">
+        <v>1.8</v>
+      </c>
+      <c r="L27">
+        <v>124</v>
+      </c>
+      <c r="M27">
+        <v>11.7</v>
+      </c>
+      <c r="N27">
+        <v>10.119999999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1610,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1628,7 +1981,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
@@ -1645,10 +1998,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C2">
         <v>1213</v>
@@ -1686,10 +2039,10 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C3">
         <v>1154</v>
@@ -1727,10 +2080,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>1102</v>
@@ -1810,7 +2163,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1828,7 +2181,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
@@ -1845,7 +2198,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>1033</v>
@@ -1865,7 +2218,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C3">
         <v>1165</v>
@@ -1885,7 +2238,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C4">
         <v>1132</v>
@@ -1905,7 +2258,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>966</v>
@@ -1922,10 +2275,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <v>950</v>
@@ -1942,10 +2295,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <v>1032</v>
@@ -1959,7 +2312,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>1147</v>
@@ -1970,7 +2323,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C9">
         <v>1047</v>
@@ -1981,7 +2334,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C10">
         <v>1045</v>
@@ -1992,13 +2345,13 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C11">
         <v>1070</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2006,7 +2359,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C12">
         <v>1160</v>
@@ -2017,7 +2370,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C13">
         <v>1068</v>
@@ -2028,7 +2381,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C14">
         <v>837</v>
@@ -2051,7 +2404,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C15">
         <v>1100</v>
@@ -2062,13 +2415,13 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C16">
         <v>1628</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2076,7 +2429,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C17">
         <v>1000</v>
@@ -2087,7 +2440,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C18">
         <v>1142</v>
@@ -2098,7 +2451,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C19">
         <v>1105</v>
@@ -2109,7 +2462,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C20">
         <v>1124</v>
@@ -2120,7 +2473,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C21">
         <v>1075</v>
@@ -2131,7 +2484,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C22">
         <v>1369</v>
@@ -2142,7 +2495,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C23">
         <v>1425</v>
@@ -2153,7 +2506,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C24">
         <v>1050</v>
@@ -2164,7 +2517,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C25">
         <v>1217</v>
@@ -2175,7 +2528,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C26">
         <v>1280</v>
@@ -2186,7 +2539,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C27">
         <v>847</v>
@@ -2202,10 +2555,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8313B353-BF25-43AE-B003-13E2A48F1E77}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2238,7 +2591,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -2256,7 +2609,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
@@ -2313,7 +2666,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C4">
         <v>895</v>
@@ -2333,7 +2686,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -2350,7 +2703,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C6">
         <v>1037</v>
@@ -2367,7 +2720,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C7">
         <v>921</v>
@@ -2384,7 +2737,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C8">
         <v>853</v>
@@ -2401,7 +2754,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C9">
         <v>1050</v>
@@ -2418,7 +2771,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C10">
         <v>1133</v>
@@ -2441,7 +2794,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C11">
         <v>955</v>
@@ -2461,7 +2814,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C12">
         <v>1174</v>
@@ -2478,7 +2831,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C13">
         <v>1026</v>
@@ -2495,7 +2848,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C14">
         <v>1138</v>
@@ -2512,7 +2865,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C15">
         <v>1110</v>
@@ -2526,7 +2879,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C16">
         <v>959</v>
@@ -2543,7 +2896,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C17">
         <v>976</v>
@@ -2560,7 +2913,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C18">
         <v>915</v>
@@ -2577,7 +2930,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C19">
         <v>1035</v>
@@ -2594,7 +2947,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C20">
         <v>1062</v>
@@ -2614,7 +2967,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C21">
         <v>983</v>
@@ -2634,7 +2987,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C22">
         <v>1200</v>
@@ -2654,7 +3007,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C23">
         <v>1380</v>
@@ -2674,7 +3027,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C24">
         <v>1070</v>
@@ -2694,7 +3047,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C25">
         <v>937</v>
@@ -2711,7 +3064,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C26">
         <v>1043</v>
@@ -2728,7 +3081,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C27">
         <v>1074</v>
@@ -2745,7 +3098,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C28">
         <v>1015</v>
@@ -2765,7 +3118,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C29">
         <v>1188</v>
@@ -2782,7 +3135,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C30">
         <v>1109</v>
@@ -2799,7 +3152,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C31">
         <v>1006</v>
@@ -2819,7 +3172,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C32">
         <v>1440</v>
@@ -2836,7 +3189,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C33">
         <v>1275</v>
@@ -2849,6 +3202,11 @@
       </c>
       <c r="H33" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2860,7 +3218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FB941B-56F6-41E4-82A9-4C2756BCA6AC}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -2888,7 +3246,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -2906,7 +3264,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
@@ -2923,7 +3281,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C2">
         <v>684</v>
@@ -2946,7 +3304,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C3">
         <v>898</v>
@@ -2969,7 +3327,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C4">
         <v>1171</v>
@@ -2992,7 +3350,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C5">
         <v>926</v>
@@ -3015,7 +3373,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C6">
         <v>822</v>
@@ -3024,7 +3382,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -3038,7 +3396,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C7">
         <v>695</v>
@@ -3047,7 +3405,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -3061,7 +3419,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C8">
         <v>737</v>
@@ -3070,7 +3428,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -3084,12 +3442,12 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/dinghies.xlsx
+++ b/dinghies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soarsi\workspace\github\dinghyapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561202A5-E571-49CF-8373-350BC30F4B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C48EB17-A19A-4DBE-80E2-064D2ADB1D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{424A2331-99F2-4D2E-BF59-9192B1CDA9D6}"/>
+    <workbookView xWindow="3330" yWindow="1980" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{424A2331-99F2-4D2E-BF59-9192B1CDA9D6}"/>
   </bookViews>
   <sheets>
     <sheet name="RS" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="119">
   <si>
     <t>name</t>
   </si>
@@ -186,9 +186,6 @@
     <t>Blaze</t>
   </si>
   <si>
-    <t>British Moth</t>
-  </si>
-  <si>
     <t>Byte CII</t>
   </si>
   <si>
@@ -222,9 +219,6 @@
     <t>Lightning 368</t>
   </si>
   <si>
-    <t>Megabyte</t>
-  </si>
-  <si>
     <t>Musto Skiff</t>
   </si>
   <si>
@@ -234,9 +228,6 @@
     <t>Optimist</t>
   </si>
   <si>
-    <t>Sprit</t>
-  </si>
-  <si>
     <t>Phantom</t>
   </si>
   <si>
@@ -252,21 +243,9 @@
     <t>Supernova</t>
   </si>
   <si>
-    <t>Topper</t>
-  </si>
-  <si>
     <t>Topper 4.2</t>
   </si>
   <si>
-    <t>Blaze Fire</t>
-  </si>
-  <si>
-    <t>Byte CI</t>
-  </si>
-  <si>
-    <t>Fusion Pro</t>
-  </si>
-  <si>
     <t>International Canoe</t>
   </si>
   <si>
@@ -388,6 +367,36 @@
   </si>
   <si>
     <t>International 14</t>
+  </si>
+  <si>
+    <t>Hartley Boats</t>
+  </si>
+  <si>
+    <t>Hadron Dinghies</t>
+  </si>
+  <si>
+    <t>49er FX</t>
+  </si>
+  <si>
+    <t>Topper Sailboats</t>
+  </si>
+  <si>
+    <t>Topper 5.3</t>
+  </si>
+  <si>
+    <t>Topper 6.4</t>
+  </si>
+  <si>
+    <t>Fusion</t>
+  </si>
+  <si>
+    <t>Fusion Sailboats</t>
+  </si>
+  <si>
+    <t>International Moth</t>
+  </si>
+  <si>
+    <t>Waszp</t>
   </si>
 </sst>
 </file>
@@ -770,7 +779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170DDF5A-0F38-402E-9EB4-88FDC06AA77D}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O2" sqref="O2:P7"/>
     </sheetView>
   </sheetViews>
@@ -807,7 +816,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1963,7 +1972,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -2127,16 +2136,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58FFF61-D2B4-441A-BA1C-302767283A2C}">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
@@ -2163,7 +2172,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -2200,6 +2209,9 @@
       <c r="A2" t="s">
         <v>47</v>
       </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
       <c r="C2">
         <v>1033</v>
       </c>
@@ -2212,16 +2224,37 @@
       <c r="F2">
         <v>1</v>
       </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
       <c r="I2">
         <v>0</v>
+      </c>
+      <c r="J2">
+        <v>4.2</v>
+      </c>
+      <c r="K2">
+        <v>2.48</v>
+      </c>
+      <c r="L2">
+        <v>72</v>
+      </c>
+      <c r="M2">
+        <v>10.4</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
       <c r="C3">
-        <v>1165</v>
+        <v>1132</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2232,16 +2265,37 @@
       <c r="F3">
         <v>1</v>
       </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
       <c r="I3">
         <v>0</v>
+      </c>
+      <c r="J3">
+        <v>3.6</v>
+      </c>
+      <c r="K3">
+        <v>1.3</v>
+      </c>
+      <c r="L3">
+        <v>45</v>
+      </c>
+      <c r="M3">
+        <v>6.8</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
       <c r="C4">
-        <v>1132</v>
+        <v>966</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2252,25 +2306,70 @@
       <c r="F4">
         <v>1</v>
       </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>4.88</v>
+      </c>
+      <c r="K4">
+        <v>1.5</v>
+      </c>
+      <c r="L4">
+        <v>83</v>
+      </c>
+      <c r="M4">
+        <v>10.3</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
       <c r="C5">
-        <v>966</v>
+        <v>950</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
       <c r="F5">
         <v>1</v>
       </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="K5">
+        <v>2.31</v>
+      </c>
+      <c r="L5">
+        <v>75</v>
+      </c>
+      <c r="M5">
+        <v>11.5</v>
+      </c>
+      <c r="N5">
+        <v>13.2</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -2278,94 +2377,283 @@
         <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6">
-        <v>950</v>
+        <v>1032</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
       <c r="F6">
         <v>1</v>
       </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>4.2</v>
+      </c>
+      <c r="K6">
+        <v>1.42</v>
+      </c>
+      <c r="L6">
+        <v>43</v>
+      </c>
+      <c r="M6">
+        <v>8.1</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" t="s">
         <v>53</v>
       </c>
       <c r="C7">
-        <v>1032</v>
+        <v>1147</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
       <c r="F7">
         <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>3.35</v>
+      </c>
+      <c r="K7">
+        <v>1.38</v>
+      </c>
+      <c r="L7">
+        <v>45</v>
+      </c>
+      <c r="M7">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>54</v>
       </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
       <c r="C8">
-        <v>1147</v>
+        <v>1047</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
       </c>
       <c r="F8">
         <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>4.53</v>
+      </c>
+      <c r="K8">
+        <v>1.58</v>
+      </c>
+      <c r="L8">
+        <v>116</v>
+      </c>
+      <c r="M8">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>55</v>
       </c>
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
       <c r="C9">
-        <v>1047</v>
+        <v>1045</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
       </c>
       <c r="F9">
         <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>4.2</v>
+      </c>
+      <c r="K9">
+        <v>1.95</v>
+      </c>
+      <c r="L9">
+        <v>56</v>
+      </c>
+      <c r="M9">
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
       <c r="C10">
-        <v>1045</v>
+        <v>1070</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
       </c>
       <c r="F10">
         <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>4.57</v>
+      </c>
+      <c r="K10">
+        <v>1.3</v>
+      </c>
+      <c r="L10">
+        <v>107</v>
+      </c>
+      <c r="M10">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11">
-        <v>1070</v>
+        <v>1160</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F11">
         <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>3.68</v>
+      </c>
+      <c r="K11">
+        <v>1.38</v>
+      </c>
+      <c r="L11">
+        <v>54</v>
+      </c>
+      <c r="M11">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>59</v>
       </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
       <c r="C12">
-        <v>1160</v>
+        <v>837</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
       </c>
       <c r="F12">
         <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>4.55</v>
+      </c>
+      <c r="K12">
+        <v>2.35</v>
+      </c>
+      <c r="L12">
+        <v>55</v>
+      </c>
+      <c r="M12">
+        <v>11.8</v>
+      </c>
+      <c r="N12">
+        <v>15.5</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -2373,18 +2661,48 @@
         <v>60</v>
       </c>
       <c r="C13">
-        <v>1068</v>
+        <v>1100</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
       </c>
       <c r="F13">
         <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>1.42</v>
+      </c>
+      <c r="L13">
+        <v>72</v>
+      </c>
+      <c r="M13">
+        <v>8.9499999999999993</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>61</v>
       </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
       <c r="C14">
-        <v>837</v>
+        <v>1628</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2395,22 +2713,67 @@
       <c r="F14">
         <v>1</v>
       </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>2.36</v>
+      </c>
+      <c r="K14">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="L14">
+        <v>35</v>
+      </c>
+      <c r="M14">
+        <v>3.3</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>62</v>
       </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
       <c r="C15">
-        <v>1100</v>
+        <v>1000</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
       </c>
       <c r="F15">
         <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>4.42</v>
+      </c>
+      <c r="K15">
+        <v>1.64</v>
+      </c>
+      <c r="L15">
+        <v>61</v>
+      </c>
+      <c r="M15">
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -2418,134 +2781,432 @@
         <v>63</v>
       </c>
       <c r="C16">
-        <v>1628</v>
+        <v>1142</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
       </c>
       <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>3.78</v>
+      </c>
+      <c r="K16">
+        <v>1.55</v>
+      </c>
+      <c r="L16">
+        <v>70</v>
+      </c>
+      <c r="M16">
+        <v>8.36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>64</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C17">
+        <v>1105</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>3.9</v>
+      </c>
+      <c r="K17">
+        <v>1.75</v>
+      </c>
+      <c r="L17">
+        <v>56</v>
+      </c>
+      <c r="M17">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>65</v>
       </c>
-      <c r="C17">
-        <v>1000</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18">
+        <v>1124</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>3.88</v>
+      </c>
+      <c r="K18">
+        <v>1.37</v>
+      </c>
+      <c r="L18">
+        <v>48</v>
+      </c>
+      <c r="M18">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>66</v>
       </c>
-      <c r="C18">
-        <v>1142</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19">
+        <v>1075</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="K19">
+        <v>1.5</v>
+      </c>
+      <c r="L19">
+        <v>50</v>
+      </c>
+      <c r="M19">
+        <v>8.2200000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20">
+        <v>1347</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>3.4</v>
+      </c>
+      <c r="K20">
+        <v>1.2</v>
+      </c>
+      <c r="L20">
+        <v>45</v>
+      </c>
+      <c r="M20">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>67</v>
       </c>
-      <c r="C19">
-        <v>1105</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21">
+        <v>1400</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>3.4</v>
+      </c>
+      <c r="K21">
+        <v>1.2</v>
+      </c>
+      <c r="L21">
+        <v>45</v>
+      </c>
+      <c r="M21">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22">
+        <v>1280</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>3.6</v>
+      </c>
+      <c r="K22">
+        <v>1.45</v>
+      </c>
+      <c r="L22">
+        <v>62</v>
+      </c>
+      <c r="M22">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>68</v>
       </c>
-      <c r="C20">
-        <v>1124</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21">
-        <v>1075</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22">
-        <v>1369</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>71</v>
-      </c>
       <c r="C23">
-        <v>1425</v>
+        <v>847</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>5.18</v>
+      </c>
+      <c r="K23">
+        <v>1.01</v>
+      </c>
+      <c r="L23">
+        <v>50</v>
+      </c>
+      <c r="M23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>114</v>
+      </c>
+      <c r="B24" t="s">
+        <v>112</v>
       </c>
       <c r="C24">
-        <v>1050</v>
+        <v>1294</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>3.4</v>
+      </c>
+      <c r="K24">
+        <v>1.2</v>
+      </c>
+      <c r="L24">
+        <v>45</v>
+      </c>
+      <c r="M24">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="C25">
-        <v>1217</v>
+        <v>570</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="K25">
+        <v>2.25</v>
+      </c>
+      <c r="M25">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="C26">
-        <v>1280</v>
+        <v>570</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27">
-        <v>847</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>3.35</v>
+      </c>
+      <c r="K26">
+        <v>2.25</v>
+      </c>
+      <c r="L26">
+        <v>48</v>
+      </c>
+      <c r="M26">
+        <v>8.1999999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -2555,10 +3216,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8313B353-BF25-43AE-B003-13E2A48F1E77}">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2591,7 +3252,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -2666,7 +3327,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C4">
         <v>895</v>
@@ -2686,7 +3347,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -2703,7 +3364,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C6">
         <v>1037</v>
@@ -2720,7 +3381,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C7">
         <v>921</v>
@@ -2737,7 +3398,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C8">
         <v>853</v>
@@ -2754,7 +3415,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C9">
         <v>1050</v>
@@ -2771,7 +3432,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C10">
         <v>1133</v>
@@ -2794,7 +3455,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C11">
         <v>955</v>
@@ -2814,7 +3475,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C12">
         <v>1174</v>
@@ -2831,7 +3492,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C13">
         <v>1026</v>
@@ -2848,7 +3509,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C14">
         <v>1138</v>
@@ -2865,7 +3526,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C15">
         <v>1110</v>
@@ -2879,7 +3540,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C16">
         <v>959</v>
@@ -2896,7 +3557,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C17">
         <v>976</v>
@@ -2913,7 +3574,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18">
         <v>915</v>
@@ -2930,7 +3591,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C19">
         <v>1035</v>
@@ -2947,7 +3608,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C20">
         <v>1062</v>
@@ -2967,7 +3628,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C21">
         <v>983</v>
@@ -2987,7 +3648,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C22">
         <v>1200</v>
@@ -3007,7 +3668,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C23">
         <v>1380</v>
@@ -3027,7 +3688,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C24">
         <v>1070</v>
@@ -3047,7 +3708,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C25">
         <v>937</v>
@@ -3064,7 +3725,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C26">
         <v>1043</v>
@@ -3081,7 +3742,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C27">
         <v>1074</v>
@@ -3098,7 +3759,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C28">
         <v>1015</v>
@@ -3118,7 +3779,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C29">
         <v>1188</v>
@@ -3135,7 +3796,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C30">
         <v>1109</v>
@@ -3152,7 +3813,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C31">
         <v>1006</v>
@@ -3172,7 +3833,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C32">
         <v>1440</v>
@@ -3189,7 +3850,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C33">
         <v>1275</v>
@@ -3206,7 +3867,12 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3246,7 +3912,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -3281,7 +3947,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C2">
         <v>684</v>
@@ -3304,7 +3970,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C3">
         <v>898</v>
@@ -3327,7 +3993,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>1171</v>
@@ -3350,7 +4016,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C5">
         <v>926</v>
@@ -3373,7 +4039,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C6">
         <v>822</v>
@@ -3396,7 +4062,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C7">
         <v>695</v>
@@ -3419,7 +4085,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C8">
         <v>737</v>
@@ -3442,12 +4108,12 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/dinghies.xlsx
+++ b/dinghies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soarsi\workspace\github\dinghyapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C48EB17-A19A-4DBE-80E2-064D2ADB1D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E51A406-2736-4027-A20B-BD4C9004893B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="1980" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{424A2331-99F2-4D2E-BF59-9192B1CDA9D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{424A2331-99F2-4D2E-BF59-9192B1CDA9D6}"/>
   </bookViews>
   <sheets>
     <sheet name="RS" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="124">
   <si>
     <t>name</t>
   </si>
@@ -288,9 +288,6 @@
     <t>Hornet</t>
   </si>
   <si>
-    <t>Icon</t>
-  </si>
-  <si>
     <t>Kestrel</t>
   </si>
   <si>
@@ -333,15 +330,6 @@
     <t>Cadet</t>
   </si>
   <si>
-    <t>Fusion Pro Gen</t>
-  </si>
-  <si>
-    <t>A Class</t>
-  </si>
-  <si>
-    <t>Catapult</t>
-  </si>
-  <si>
     <t>Challenger</t>
   </si>
   <si>
@@ -363,9 +351,6 @@
     <t>Nacra 15</t>
   </si>
   <si>
-    <t>Other Nacras</t>
-  </si>
-  <si>
     <t>International 14</t>
   </si>
   <si>
@@ -397,12 +382,45 @@
   </si>
   <si>
     <t>Waszp</t>
+  </si>
+  <si>
+    <t>Cherub</t>
+  </si>
+  <si>
+    <t>Vantage Sailing</t>
+  </si>
+  <si>
+    <t>John Claridge Boats</t>
+  </si>
+  <si>
+    <t>Nacra 500</t>
+  </si>
+  <si>
+    <t>Nacra 570</t>
+  </si>
+  <si>
+    <t>Nacra F16</t>
+  </si>
+  <si>
+    <t>Nacra F18</t>
+  </si>
+  <si>
+    <t>Nacra F20</t>
+  </si>
+  <si>
+    <t>Nacra 17</t>
+  </si>
+  <si>
+    <t>Nacra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -440,9 +458,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -780,21 +802,22 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:P7"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.5703125" customWidth="1"/>
     <col min="16" max="16" width="19.140625" customWidth="1"/>
   </cols>
@@ -816,7 +839,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -827,19 +850,19 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -850,20 +873,17 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
+      <c r="A2">
+        <v>2000</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2">
-        <v>1451</v>
-      </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -872,33 +892,36 @@
         <v>0</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>2.87</v>
-      </c>
-      <c r="K2">
-        <v>1.23</v>
+      <c r="J2" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1.8</v>
       </c>
       <c r="L2">
-        <v>43</v>
-      </c>
-      <c r="M2">
-        <v>4.8</v>
+        <v>124</v>
+      </c>
+      <c r="M2" s="5">
+        <v>11.7</v>
+      </c>
+      <c r="N2" s="5">
+        <v>10.119999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3">
-        <v>1351</v>
+        <v>1141</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -918,28 +941,28 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>2.87</v>
-      </c>
-      <c r="K3">
-        <v>1.23</v>
+      <c r="J3" s="3">
+        <v>4</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1.4</v>
       </c>
       <c r="L3">
-        <v>43</v>
-      </c>
-      <c r="M3">
-        <v>3.7</v>
+        <v>33</v>
+      </c>
+      <c r="M3" s="5">
+        <v>5.2</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4">
-        <v>1141</v>
+        <v>1102</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -959,28 +982,28 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>4</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>1.4</v>
       </c>
       <c r="L4">
         <v>33</v>
       </c>
-      <c r="M4">
-        <v>5.2</v>
+      <c r="M4" s="5">
+        <v>6.3</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5">
-        <v>1102</v>
+        <v>1061</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1000,28 +1023,28 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>4</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>1.4</v>
       </c>
       <c r="L5">
         <v>33</v>
       </c>
-      <c r="M5">
-        <v>6.3</v>
+      <c r="M5" s="5">
+        <v>7.4</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6">
-        <v>1061</v>
+        <v>1008</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1041,70 +1064,67 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>4</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>1.4</v>
       </c>
       <c r="L6">
         <v>33</v>
       </c>
-      <c r="M6">
-        <v>7.4</v>
+      <c r="M6" s="5">
+        <v>8.9</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7">
-        <v>1008</v>
-      </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>4</v>
-      </c>
-      <c r="K7">
-        <v>1.4</v>
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>4.25</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2.14</v>
       </c>
       <c r="L7">
-        <v>33</v>
-      </c>
-      <c r="M7">
-        <v>8.9</v>
+        <v>80</v>
+      </c>
+      <c r="M7" s="5">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="N7" s="5">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8">
-        <v>1244</v>
-      </c>
       <c r="D8">
         <v>2</v>
       </c>
@@ -1112,7 +1132,7 @@
         <v>23</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -1121,39 +1141,39 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>3.64</v>
-      </c>
-      <c r="K8">
-        <v>1.42</v>
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2.35</v>
       </c>
       <c r="L8">
-        <v>73</v>
-      </c>
-      <c r="M8">
-        <v>8.6</v>
-      </c>
-      <c r="N8">
-        <v>7</v>
+        <v>94</v>
+      </c>
+      <c r="M8" s="5">
+        <v>12.33</v>
+      </c>
+      <c r="N8" s="5">
+        <v>12.82</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9">
-        <v>1093</v>
+        <v>1244</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1167,37 +1187,34 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="K9">
-        <v>1.57</v>
+      <c r="J9" s="3">
+        <v>3.64</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1.42</v>
       </c>
       <c r="L9">
-        <v>70</v>
-      </c>
-      <c r="M9">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="N9">
-        <v>9.9</v>
+        <v>73</v>
+      </c>
+      <c r="M9" s="5">
+        <v>8.6</v>
+      </c>
+      <c r="N9" s="5">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10">
-        <v>1139</v>
-      </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1206,48 +1223,42 @@
         <v>0</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10">
-        <v>4.57</v>
-      </c>
-      <c r="K10">
-        <v>1.73</v>
+      <c r="J10" s="3">
+        <v>3.53</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1.42</v>
       </c>
       <c r="L10">
-        <v>125</v>
-      </c>
-      <c r="M10">
-        <v>11.9</v>
-      </c>
-      <c r="N10">
-        <v>12</v>
+        <v>64</v>
+      </c>
+      <c r="M10" s="5">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C11">
-        <v>999</v>
-      </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -1255,29 +1266,32 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11">
-        <v>4.3</v>
-      </c>
-      <c r="K11">
+      <c r="J11" s="3">
+        <v>4.29</v>
+      </c>
+      <c r="K11" s="3">
         <v>1.83</v>
       </c>
       <c r="L11">
-        <v>52</v>
-      </c>
-      <c r="M11">
-        <v>8.4</v>
-      </c>
-      <c r="N11">
-        <v>12.5</v>
+        <v>140</v>
+      </c>
+      <c r="M11" s="5">
+        <v>11.1</v>
+      </c>
+      <c r="N11" s="5">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
+      <c r="C12">
+        <v>1451</v>
+      </c>
       <c r="D12">
         <v>1</v>
       </c>
@@ -1291,42 +1305,39 @@
         <v>0</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12">
-        <v>4.3</v>
-      </c>
-      <c r="K12">
-        <v>1.83</v>
+      <c r="J12" s="3">
+        <v>2.87</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1.23</v>
       </c>
       <c r="L12">
-        <v>52</v>
-      </c>
-      <c r="M12">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="N12">
-        <v>12.5</v>
+        <v>43</v>
+      </c>
+      <c r="M12" s="5">
+        <v>4.8</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13">
-        <v>1046</v>
+        <v>1351</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1335,42 +1346,36 @@
         <v>0</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13">
-        <v>4</v>
-      </c>
-      <c r="K13">
-        <v>1.83</v>
+      <c r="J13" s="3">
+        <v>2.87</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.23</v>
       </c>
       <c r="L13">
-        <v>78</v>
-      </c>
-      <c r="M13">
-        <v>11.89</v>
-      </c>
-      <c r="N13">
-        <v>8.2899999999999991</v>
+        <v>43</v>
+      </c>
+      <c r="M13" s="5">
+        <v>3.7</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C14">
-        <v>965</v>
-      </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1379,39 +1384,42 @@
         <v>0</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14">
-        <v>4.24</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
+      <c r="J14" s="3">
+        <v>4.63</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1.95</v>
       </c>
       <c r="L14">
-        <v>58</v>
-      </c>
-      <c r="M14">
-        <v>10</v>
+        <v>175</v>
+      </c>
+      <c r="M14" s="5">
+        <v>13.9</v>
+      </c>
+      <c r="N14" s="5">
+        <v>14.6</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15">
-        <v>939</v>
+        <v>1093</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1425,32 +1433,29 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15">
-        <v>4.5199999999999996</v>
-      </c>
-      <c r="K15">
-        <v>1.98</v>
+      <c r="J15" s="3">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1.57</v>
       </c>
       <c r="L15">
-        <v>88</v>
-      </c>
-      <c r="M15">
-        <v>14.76</v>
-      </c>
-      <c r="N15">
-        <v>13.94</v>
+        <v>70</v>
+      </c>
+      <c r="M15" s="5">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N15" s="5">
+        <v>9.9</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16">
-        <v>963</v>
-      </c>
       <c r="D16">
         <v>2</v>
       </c>
@@ -1467,39 +1472,39 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>4.34</v>
-      </c>
-      <c r="K16">
-        <v>1.58</v>
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K16" s="3">
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>87</v>
-      </c>
-      <c r="M16">
-        <v>13.1</v>
-      </c>
-      <c r="N16">
+        <v>195</v>
+      </c>
+      <c r="M16" s="5">
+        <v>12.8</v>
+      </c>
+      <c r="N16" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>917</v>
+        <v>1139</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1508,39 +1513,39 @@
         <v>0</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>4.47</v>
-      </c>
-      <c r="K17">
-        <v>1.93</v>
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4.57</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1.73</v>
       </c>
       <c r="L17">
-        <v>52</v>
-      </c>
-      <c r="M17">
-        <v>12.14</v>
+        <v>125</v>
+      </c>
+      <c r="M17" s="5">
+        <v>11.9</v>
+      </c>
+      <c r="N17" s="5">
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C18">
-        <v>845</v>
-      </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1549,42 +1554,36 @@
         <v>0</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>4.68</v>
-      </c>
-      <c r="K18">
-        <v>1.92</v>
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3.59</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1.47</v>
       </c>
       <c r="L18">
-        <v>49</v>
-      </c>
-      <c r="M18">
-        <v>12.8</v>
-      </c>
-      <c r="N18">
-        <v>16</v>
+        <v>73</v>
+      </c>
+      <c r="M18" s="5">
+        <v>7.1</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="C19">
-        <v>799</v>
-      </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1596,36 +1595,39 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="J19">
-        <v>4.8</v>
-      </c>
-      <c r="K19">
-        <v>1.89</v>
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1.83</v>
       </c>
       <c r="L19">
-        <v>68</v>
-      </c>
-      <c r="M19">
-        <v>16.5</v>
-      </c>
-      <c r="N19">
-        <v>21</v>
+        <v>52</v>
+      </c>
+      <c r="M19" s="5">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="N19" s="5">
+        <v>12.5</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
+      <c r="C20">
+        <v>999</v>
+      </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1634,31 +1636,37 @@
         <v>0</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20">
-        <v>3.59</v>
-      </c>
-      <c r="K20">
-        <v>1.47</v>
+      <c r="J20" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1.83</v>
       </c>
       <c r="L20">
-        <v>73</v>
-      </c>
-      <c r="M20">
-        <v>7.1</v>
+        <v>52</v>
+      </c>
+      <c r="M20" s="5">
+        <v>8.4</v>
+      </c>
+      <c r="N20" s="5">
+        <v>12.5</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
+      <c r="C21">
+        <v>1046</v>
+      </c>
       <c r="D21">
         <v>2</v>
       </c>
@@ -1669,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
@@ -1677,34 +1685,37 @@
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21">
-        <v>4.29</v>
-      </c>
-      <c r="K21">
+      <c r="J21" s="3">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>1.83</v>
       </c>
       <c r="L21">
-        <v>140</v>
-      </c>
-      <c r="M21">
-        <v>11.1</v>
-      </c>
-      <c r="N21">
-        <v>11</v>
+        <v>78</v>
+      </c>
+      <c r="M21" s="5">
+        <v>11.89</v>
+      </c>
+      <c r="N21" s="5">
+        <v>8.2899999999999991</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
+      <c r="C22">
+        <v>965</v>
+      </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1713,39 +1724,39 @@
         <v>0</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22">
-        <v>4.63</v>
-      </c>
-      <c r="K22">
-        <v>1.95</v>
+      <c r="J22" s="3">
+        <v>4.24</v>
+      </c>
+      <c r="K22" s="3">
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>175</v>
-      </c>
-      <c r="M22">
-        <v>13.9</v>
-      </c>
-      <c r="N22">
-        <v>14.6</v>
+        <v>58</v>
+      </c>
+      <c r="M22" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
+      <c r="C23">
+        <v>939</v>
+      </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1754,31 +1765,37 @@
         <v>0</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23">
-        <v>3.53</v>
-      </c>
-      <c r="K23">
-        <v>1.42</v>
+      <c r="J23" s="3">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1.98</v>
       </c>
       <c r="L23">
-        <v>64</v>
-      </c>
-      <c r="M23">
-        <v>6</v>
+        <v>88</v>
+      </c>
+      <c r="M23" s="5">
+        <v>14.76</v>
+      </c>
+      <c r="N23" s="5">
+        <v>13.94</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
+      <c r="C24">
+        <v>963</v>
+      </c>
       <c r="D24">
         <v>2</v>
       </c>
@@ -1795,80 +1812,83 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J24" s="3">
+        <v>4.34</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1.58</v>
       </c>
       <c r="L24">
-        <v>195</v>
-      </c>
-      <c r="M24">
-        <v>12.8</v>
-      </c>
-      <c r="N24">
+        <v>87</v>
+      </c>
+      <c r="M24" s="5">
+        <v>13.1</v>
+      </c>
+      <c r="N24" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
+      <c r="C25">
+        <v>917</v>
+      </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25">
-        <v>4.7</v>
-      </c>
-      <c r="K25">
-        <v>2.35</v>
+      <c r="J25" s="3">
+        <v>4.47</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1.93</v>
       </c>
       <c r="L25">
-        <v>94</v>
-      </c>
-      <c r="M25">
-        <v>12.33</v>
-      </c>
-      <c r="N25">
-        <v>12.82</v>
+        <v>52</v>
+      </c>
+      <c r="M25" s="5">
+        <v>12.14</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
+      <c r="C26">
+        <v>845</v>
+      </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -1879,29 +1899,32 @@
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="J26">
-        <v>4.25</v>
-      </c>
-      <c r="K26">
-        <v>2.14</v>
+      <c r="J26" s="3">
+        <v>4.68</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1.92</v>
       </c>
       <c r="L26">
-        <v>80</v>
-      </c>
-      <c r="M26">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="N26">
-        <v>9</v>
+        <v>49</v>
+      </c>
+      <c r="M26" s="5">
+        <v>12.8</v>
+      </c>
+      <c r="N26" s="5">
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2000</v>
+      <c r="A27" t="s">
+        <v>34</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
+      <c r="C27">
+        <v>799</v>
+      </c>
       <c r="D27">
         <v>2</v>
       </c>
@@ -1918,25 +1941,28 @@
         <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="K27">
-        <v>1.8</v>
+        <v>2</v>
+      </c>
+      <c r="J27" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1.89</v>
       </c>
       <c r="L27">
-        <v>124</v>
-      </c>
-      <c r="M27">
-        <v>11.7</v>
-      </c>
-      <c r="N27">
-        <v>10.119999999999999</v>
+        <v>68</v>
+      </c>
+      <c r="M27" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="N27" s="5">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P28">
+    <sortCondition ref="A2:A28"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1947,12 +1973,14 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="3"/>
+    <col min="13" max="13" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1972,7 +2000,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1983,16 +2011,16 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -2033,16 +2061,16 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>4.0599999999999996</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>1.39</v>
       </c>
       <c r="L2">
         <v>59</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="5">
         <v>4.7</v>
       </c>
     </row>
@@ -2074,16 +2102,16 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>4.0599999999999996</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>1.39</v>
       </c>
       <c r="L3">
         <v>59</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="5">
         <v>5.7</v>
       </c>
     </row>
@@ -2115,16 +2143,16 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>4.0599999999999996</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>1.39</v>
       </c>
       <c r="L4">
         <v>59</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="5">
         <v>7</v>
       </c>
     </row>
@@ -2138,8 +2166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58FFF61-D2B4-441A-BA1C-302767283A2C}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2149,8 +2177,10 @@
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="3"/>
     <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="5"/>
+    <col min="14" max="14" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2172,7 +2202,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -2183,19 +2213,19 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -2210,7 +2240,7 @@
         <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C2">
         <v>1033</v>
@@ -2233,16 +2263,16 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>4.2</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>2.48</v>
       </c>
       <c r="L2">
         <v>72</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="5">
         <v>10.4</v>
       </c>
     </row>
@@ -2251,7 +2281,7 @@
         <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C3">
         <v>1132</v>
@@ -2274,16 +2304,16 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>3.6</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>1.3</v>
       </c>
       <c r="L3">
         <v>45</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="5">
         <v>6.8</v>
       </c>
     </row>
@@ -2292,7 +2322,7 @@
         <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C4">
         <v>966</v>
@@ -2315,16 +2345,16 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>4.88</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>1.5</v>
       </c>
       <c r="L4">
         <v>83</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="5">
         <v>10.3</v>
       </c>
     </row>
@@ -2356,19 +2386,19 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>4.2300000000000004</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>2.31</v>
       </c>
       <c r="L5">
         <v>75</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="5">
         <v>11.5</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="5">
         <v>13.2</v>
       </c>
     </row>
@@ -2400,16 +2430,16 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>4.2</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>1.42</v>
       </c>
       <c r="L6">
         <v>43</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="5">
         <v>8.1</v>
       </c>
     </row>
@@ -2438,16 +2468,16 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>3.35</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>1.38</v>
       </c>
       <c r="L7">
         <v>45</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="5">
         <v>7</v>
       </c>
     </row>
@@ -2479,28 +2509,28 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>4.53</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>1.58</v>
       </c>
       <c r="L8">
         <v>116</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C9">
-        <v>1045</v>
+        <v>1280</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2520,66 +2550,66 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9">
-        <v>4.2</v>
-      </c>
-      <c r="K9">
-        <v>1.95</v>
+      <c r="J9" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1.45</v>
       </c>
       <c r="L9">
-        <v>56</v>
-      </c>
-      <c r="M9">
-        <v>9.3000000000000007</v>
+        <v>62</v>
+      </c>
+      <c r="M9" s="5">
+        <v>6.45</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10">
+        <v>1045</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1.95</v>
+      </c>
+      <c r="L10">
         <v>56</v>
       </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10">
-        <v>1070</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>4.57</v>
-      </c>
-      <c r="K10">
-        <v>1.3</v>
-      </c>
-      <c r="L10">
-        <v>107</v>
-      </c>
-      <c r="M10">
-        <v>11</v>
+      <c r="M10" s="5">
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C11">
-        <v>1160</v>
+        <v>847</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2599,28 +2629,25 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11">
-        <v>3.68</v>
-      </c>
-      <c r="K11">
-        <v>1.38</v>
+      <c r="J11" s="3">
+        <v>5.18</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1.01</v>
       </c>
       <c r="L11">
-        <v>54</v>
-      </c>
-      <c r="M11">
-        <v>7</v>
+        <v>50</v>
+      </c>
+      <c r="M11" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="C12">
-        <v>837</v>
+        <v>570</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2635,39 +2662,36 @@
         <v>0</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>4.55</v>
-      </c>
-      <c r="K12">
-        <v>2.35</v>
-      </c>
-      <c r="L12">
-        <v>55</v>
-      </c>
-      <c r="M12">
-        <v>11.8</v>
-      </c>
-      <c r="N12">
-        <v>15.5</v>
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="K12" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="M12" s="5">
+        <v>8.25</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
       </c>
       <c r="C13">
-        <v>1100</v>
+        <v>1070</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2681,28 +2705,25 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13">
-        <v>4</v>
-      </c>
-      <c r="K13">
-        <v>1.42</v>
+      <c r="J13" s="3">
+        <v>4.57</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.3</v>
       </c>
       <c r="L13">
-        <v>72</v>
-      </c>
-      <c r="M13">
-        <v>8.9499999999999993</v>
+        <v>107</v>
+      </c>
+      <c r="M13" s="5">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C14">
-        <v>1628</v>
+        <v>1160</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2722,28 +2743,28 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14">
-        <v>2.36</v>
-      </c>
-      <c r="K14">
-        <v>1.1200000000000001</v>
+      <c r="J14" s="3">
+        <v>3.68</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1.38</v>
       </c>
       <c r="L14">
-        <v>35</v>
-      </c>
-      <c r="M14">
-        <v>3.3</v>
+        <v>54</v>
+      </c>
+      <c r="M14" s="5">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
       </c>
       <c r="C15">
-        <v>1000</v>
+        <v>837</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2758,30 +2779,33 @@
         <v>0</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>4.42</v>
-      </c>
-      <c r="K15">
-        <v>1.64</v>
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>4.55</v>
+      </c>
+      <c r="K15" s="3">
+        <v>2.35</v>
       </c>
       <c r="L15">
-        <v>61</v>
-      </c>
-      <c r="M15">
-        <v>9.8000000000000007</v>
+        <v>55</v>
+      </c>
+      <c r="M15" s="5">
+        <v>11.8</v>
+      </c>
+      <c r="N15" s="5">
+        <v>15.5</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C16">
-        <v>1142</v>
+        <v>1100</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2801,25 +2825,28 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16">
-        <v>3.78</v>
-      </c>
-      <c r="K16">
-        <v>1.55</v>
+      <c r="J16" s="3">
+        <v>4</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1.42</v>
       </c>
       <c r="L16">
-        <v>70</v>
-      </c>
-      <c r="M16">
-        <v>8.36</v>
+        <v>72</v>
+      </c>
+      <c r="M16" s="5">
+        <v>8.9499999999999993</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
       </c>
       <c r="C17">
-        <v>1105</v>
+        <v>1628</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2839,28 +2866,28 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17">
-        <v>3.9</v>
-      </c>
-      <c r="K17">
-        <v>1.75</v>
+      <c r="J17" s="3">
+        <v>2.36</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1.1200000000000001</v>
       </c>
       <c r="L17">
-        <v>56</v>
-      </c>
-      <c r="M17">
-        <v>8.5</v>
+        <v>35</v>
+      </c>
+      <c r="M17" s="5">
+        <v>3.3</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="C18">
-        <v>1124</v>
+        <v>1000</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2880,28 +2907,25 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18">
-        <v>3.88</v>
-      </c>
-      <c r="K18">
-        <v>1.37</v>
+      <c r="J18" s="3">
+        <v>4.42</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1.64</v>
       </c>
       <c r="L18">
-        <v>48</v>
-      </c>
-      <c r="M18">
-        <v>6.5</v>
+        <v>61</v>
+      </c>
+      <c r="M18" s="5">
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="C19">
-        <v>1075</v>
+        <v>1142</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2921,28 +2945,25 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="K19">
-        <v>1.5</v>
+      <c r="J19" s="3">
+        <v>3.78</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1.55</v>
       </c>
       <c r="L19">
-        <v>50</v>
-      </c>
-      <c r="M19">
-        <v>8.2200000000000006</v>
+        <v>70</v>
+      </c>
+      <c r="M19" s="5">
+        <v>8.36</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>113</v>
-      </c>
-      <c r="B20" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="C20">
-        <v>1347</v>
+        <v>1105</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2962,28 +2983,28 @@
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20">
-        <v>3.4</v>
-      </c>
-      <c r="K20">
-        <v>1.2</v>
+      <c r="J20" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1.75</v>
       </c>
       <c r="L20">
-        <v>45</v>
-      </c>
-      <c r="M20">
-        <v>5.3</v>
+        <v>56</v>
+      </c>
+      <c r="M20" s="5">
+        <v>8.5</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C21">
-        <v>1400</v>
+        <v>1124</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -3003,28 +3024,28 @@
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21">
-        <v>3.4</v>
-      </c>
-      <c r="K21">
-        <v>1.2</v>
+      <c r="J21" s="3">
+        <v>3.88</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1.37</v>
       </c>
       <c r="L21">
-        <v>45</v>
-      </c>
-      <c r="M21">
-        <v>4.2</v>
+        <v>48</v>
+      </c>
+      <c r="M21" s="5">
+        <v>6.5</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C22">
-        <v>1280</v>
+        <v>1075</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -3044,25 +3065,28 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22">
-        <v>3.6</v>
-      </c>
-      <c r="K22">
-        <v>1.45</v>
+      <c r="J22" s="3">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1.5</v>
       </c>
       <c r="L22">
-        <v>62</v>
-      </c>
-      <c r="M22">
-        <v>6.45</v>
+        <v>50</v>
+      </c>
+      <c r="M22" s="5">
+        <v>8.2200000000000006</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>107</v>
       </c>
       <c r="C23">
-        <v>847</v>
+        <v>1400</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -3082,28 +3106,28 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23">
-        <v>5.18</v>
-      </c>
-      <c r="K23">
-        <v>1.01</v>
+      <c r="J23" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1.2</v>
       </c>
       <c r="L23">
-        <v>50</v>
-      </c>
-      <c r="M23">
-        <v>10</v>
+        <v>45</v>
+      </c>
+      <c r="M23" s="5">
+        <v>4.2</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C24">
-        <v>1294</v>
+        <v>1347</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -3123,25 +3147,28 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="3">
         <v>3.4</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="3">
         <v>1.2</v>
       </c>
       <c r="L24">
         <v>45</v>
       </c>
-      <c r="M24">
-        <v>6.4</v>
+      <c r="M24" s="5">
+        <v>5.3</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>109</v>
+      </c>
+      <c r="B25" t="s">
+        <v>107</v>
       </c>
       <c r="C25">
-        <v>570</v>
+        <v>1294</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -3161,19 +3188,22 @@
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="J25">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="K25">
-        <v>2.25</v>
-      </c>
-      <c r="M25">
-        <v>8.25</v>
+      <c r="J25" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L25">
+        <v>45</v>
+      </c>
+      <c r="M25" s="5">
+        <v>6.4</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C26">
         <v>570</v>
@@ -3196,20 +3226,23 @@
       <c r="I26">
         <v>0</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="3">
         <v>3.35</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="3">
         <v>2.25</v>
       </c>
       <c r="L26">
         <v>48</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="5">
         <v>8.1999999999999993</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P26">
+    <sortCondition ref="A2:A26"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3218,19 +3251,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8313B353-BF25-43AE-B003-13E2A48F1E77}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="3"/>
     <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -3252,7 +3286,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -3263,19 +3297,19 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -3295,151 +3329,340 @@
       <c r="D2">
         <v>2</v>
       </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
       <c r="I2">
         <v>1</v>
+      </c>
+      <c r="J2" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1.63</v>
+      </c>
+      <c r="L2">
+        <v>80</v>
+      </c>
+      <c r="M2" s="5">
+        <v>10.25</v>
+      </c>
+      <c r="N2" s="5">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>470</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1.69</v>
+      </c>
+      <c r="L3">
+        <v>120</v>
+      </c>
+      <c r="M3" s="5">
+        <v>12.7</v>
+      </c>
+      <c r="N3" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>505</v>
       </c>
-      <c r="C3">
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4">
         <v>896</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4">
-        <v>895</v>
-      </c>
       <c r="D4">
         <v>2</v>
       </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
       <c r="F4">
         <v>1</v>
       </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>5.05</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1.88</v>
+      </c>
+      <c r="L4">
+        <v>127.4</v>
+      </c>
+      <c r="M4" s="5">
+        <v>17.25</v>
+      </c>
+      <c r="N4" s="5">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>895</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
       <c r="F5">
         <v>1</v>
       </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
       <c r="H5" t="b">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4.45</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1.77</v>
+      </c>
+      <c r="L5">
+        <v>72</v>
+      </c>
+      <c r="M5" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="N5" s="5">
+        <v>16.829999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6">
-        <v>1037</v>
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="L6">
+        <v>94</v>
+      </c>
+      <c r="M6" s="5">
+        <v>21.2</v>
+      </c>
+      <c r="N6" s="5">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7">
-        <v>921</v>
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
       <c r="F7">
         <v>1</v>
       </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
       <c r="H7" t="b">
         <v>1</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="L7">
+        <v>94</v>
+      </c>
+      <c r="M7" s="5">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="N7" s="5">
+        <v>25.1</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
       </c>
       <c r="C8">
-        <v>853</v>
+        <v>1037</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
       <c r="F8">
         <v>1</v>
       </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4.57</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1.55</v>
+      </c>
+      <c r="L8">
+        <v>109</v>
+      </c>
+      <c r="M8" s="5">
+        <v>11.61</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C9">
-        <v>1050</v>
+        <v>921</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
       <c r="F9">
         <v>1</v>
       </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
       <c r="H9" t="b">
         <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1.85</v>
+      </c>
+      <c r="L9">
+        <v>82</v>
+      </c>
+      <c r="M9" s="5">
+        <v>15.2</v>
+      </c>
+      <c r="N9" s="5">
+        <v>16.8</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C10">
-        <v>1133</v>
+        <v>853</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
       <c r="F10">
         <v>1</v>
       </c>
@@ -3447,452 +3670,1071 @@
         <v>0</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4.25</v>
+      </c>
+      <c r="K10" s="3">
+        <v>3.05</v>
+      </c>
+      <c r="L10">
+        <v>64</v>
+      </c>
+      <c r="M10" s="5">
+        <v>17.2</v>
+      </c>
+      <c r="N10" s="5">
+        <v>29.2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>115</v>
       </c>
       <c r="C11">
-        <v>955</v>
+        <v>1006</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
+      </c>
+      <c r="J11" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1.92</v>
+      </c>
+      <c r="L11">
+        <v>90</v>
+      </c>
+      <c r="M11" s="5">
+        <v>12.85</v>
+      </c>
+      <c r="N11" s="5">
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C12">
-        <v>1174</v>
+        <v>1440</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
       <c r="F12">
         <v>1</v>
       </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
       <c r="I12">
         <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1.38</v>
+      </c>
+      <c r="L12">
+        <v>54</v>
+      </c>
+      <c r="M12" s="5">
+        <v>5.16</v>
+      </c>
+      <c r="N12" s="5">
+        <v>4.25</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13">
-        <v>1026</v>
+        <v>114</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="L13">
+        <v>50</v>
+      </c>
+      <c r="M13" s="5">
+        <v>15.5</v>
+      </c>
+      <c r="N13" s="5">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C14">
-        <v>1138</v>
+        <v>1050</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1.83</v>
+      </c>
+      <c r="L14">
+        <v>145</v>
+      </c>
+      <c r="M14" s="5">
+        <v>12.53</v>
+      </c>
+      <c r="N14" s="5">
+        <v>9.2799999999999994</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C15">
-        <v>1110</v>
+        <v>1133</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
       <c r="F15">
         <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>4.04</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="L15">
+        <v>94</v>
+      </c>
+      <c r="M15" s="5">
+        <v>10.7</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16">
+        <v>955</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>4.93</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1.35</v>
+      </c>
+      <c r="L16">
+        <v>77</v>
+      </c>
+      <c r="M16" s="5">
+        <v>11.43</v>
+      </c>
+      <c r="N16" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17">
+        <v>1174</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3.66</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1.42</v>
+      </c>
+      <c r="L17">
+        <v>74</v>
+      </c>
+      <c r="M17" s="5">
+        <v>8.36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18">
+        <v>1026</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1.52</v>
+      </c>
+      <c r="L18">
+        <v>305</v>
+      </c>
+      <c r="M18" s="5">
+        <v>13.9</v>
+      </c>
+      <c r="N18" s="5">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19">
+        <v>1138</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1.54</v>
+      </c>
+      <c r="L19">
+        <v>133</v>
+      </c>
+      <c r="M19" s="5">
+        <v>12.85</v>
+      </c>
+      <c r="N19" s="5">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20">
+        <v>1110</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>3.82</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1.42</v>
+      </c>
+      <c r="L20">
+        <v>84</v>
+      </c>
+      <c r="M20" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>81</v>
       </c>
-      <c r="C16">
+      <c r="C21">
         <v>959</v>
       </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
+        <v>4.87</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1.64</v>
+      </c>
+      <c r="L21">
+        <v>61</v>
+      </c>
+      <c r="M21" s="5">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22" s="3">
+        <v>4.26</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1.83</v>
+      </c>
+      <c r="L22">
+        <v>70</v>
+      </c>
+      <c r="M22" s="5">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="N22" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23">
+        <v>915</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1.97</v>
+      </c>
+      <c r="L23">
+        <v>280</v>
+      </c>
+      <c r="M23" s="5">
+        <v>19.7</v>
+      </c>
+      <c r="N23" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>82</v>
       </c>
-      <c r="C17">
-        <v>976</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18">
-        <v>915</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C24">
+        <v>1035</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>4.78</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="L24">
+        <v>120</v>
+      </c>
+      <c r="M24" s="5">
+        <v>14.09</v>
+      </c>
+      <c r="N24" s="5">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>83</v>
       </c>
-      <c r="C19">
-        <v>1035</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C25">
+        <v>1062</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>4.07</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1.64</v>
+      </c>
+      <c r="L25">
+        <v>95</v>
+      </c>
+      <c r="M25" s="5">
+        <v>9.75</v>
+      </c>
+      <c r="N25" s="5">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>84</v>
       </c>
-      <c r="C20">
-        <v>1062</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C26">
+        <v>983</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="K26" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L26">
+        <v>98</v>
+      </c>
+      <c r="M26" s="5">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="N26" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>85</v>
       </c>
-      <c r="C21">
-        <v>983</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C27">
+        <v>1200</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>3.89</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1.59</v>
+      </c>
+      <c r="L27">
+        <v>59</v>
+      </c>
+      <c r="M27" s="5">
+        <v>8.9</v>
+      </c>
+      <c r="N27" s="5">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>86</v>
       </c>
-      <c r="C22">
-        <v>1200</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C28">
+        <v>1380</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1.39</v>
+      </c>
+      <c r="L28">
+        <v>46</v>
+      </c>
+      <c r="M28" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="N28" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>87</v>
       </c>
-      <c r="C23">
-        <v>1380</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C29">
+        <v>1070</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>3.66</v>
+      </c>
+      <c r="K29" s="3">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>78</v>
+      </c>
+      <c r="M29" s="5">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>88</v>
       </c>
-      <c r="C24">
-        <v>1070</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C30">
+        <v>937</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3">
+        <v>5.35</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="L30">
+        <v>134</v>
+      </c>
+      <c r="M30" s="5">
+        <v>13.93</v>
+      </c>
+      <c r="N30" s="5">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>89</v>
       </c>
-      <c r="C25">
-        <v>937</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C31">
+        <v>1043</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="L31">
+        <v>81</v>
+      </c>
+      <c r="M31" s="5">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="N31" s="5">
+        <v>11.14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>90</v>
       </c>
-      <c r="C26">
-        <v>1043</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32">
+        <v>1074</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="L32">
+        <v>109</v>
+      </c>
+      <c r="M32" s="5">
+        <v>11.14</v>
+      </c>
+      <c r="N32" s="5">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>91</v>
       </c>
-      <c r="C27">
-        <v>1074</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="C33">
+        <v>1015</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="L33">
+        <v>68</v>
+      </c>
+      <c r="M33" s="5">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>92</v>
       </c>
-      <c r="C28">
-        <v>1015</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C34">
+        <v>1188</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="L34">
+        <v>136</v>
+      </c>
+      <c r="M34" s="5">
+        <v>10.7</v>
+      </c>
+      <c r="N34" s="5">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>93</v>
       </c>
-      <c r="C29">
-        <v>1188</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30">
+      <c r="C35">
         <v>1109</v>
       </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31">
-        <v>1006</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="H31" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32">
-        <v>1440</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33">
-        <v>1275</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="H33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>111</v>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>15.84</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1.86</v>
+      </c>
+      <c r="L35">
+        <v>169</v>
+      </c>
+      <c r="M35" s="5">
+        <v>11.61</v>
+      </c>
+      <c r="N35" s="5">
+        <v>13.5</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P35">
+    <sortCondition ref="A2:A35"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FB941B-56F6-41E4-82A9-4C2756BCA6AC}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="3"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3912,7 +4754,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -3923,19 +4765,19 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -3947,10 +4789,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C2">
-        <v>684</v>
+        <v>1171</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3959,21 +4801,36 @@
         <v>16</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>4.57</v>
+      </c>
+      <c r="K2" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="L2">
+        <v>140</v>
+      </c>
+      <c r="M2" s="5">
+        <v>8.0399999999999991</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3">
-        <v>898</v>
+        <v>926</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3990,42 +4847,72 @@
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>4.54</v>
+      </c>
+      <c r="K3" s="3">
+        <v>2.13</v>
+      </c>
+      <c r="L3">
+        <v>66</v>
+      </c>
+      <c r="M3" s="5">
+        <v>12.29</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4">
-        <v>1171</v>
+        <v>822</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>5.48</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="L4">
+        <v>130</v>
+      </c>
+      <c r="M4" s="5">
+        <v>16.079999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5">
-        <v>926</v>
+        <v>695</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -4034,15 +4921,33 @@
         <v>0</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="L5">
+        <v>186</v>
+      </c>
+      <c r="M5" s="5">
+        <v>21.72</v>
+      </c>
+      <c r="N5" s="5">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6">
-        <v>822</v>
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>123</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -4057,15 +4962,33 @@
         <v>0</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2.34</v>
+      </c>
+      <c r="L6">
+        <v>150</v>
+      </c>
+      <c r="M6" s="5">
+        <v>17.05</v>
+      </c>
+      <c r="N6" s="5">
+        <v>15.91</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7">
-        <v>695</v>
+        <v>122</v>
+      </c>
+      <c r="B7" t="s">
+        <v>123</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -4081,14 +5004,32 @@
       </c>
       <c r="H7" t="b">
         <v>1</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" s="3">
+        <v>5.25</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="L7">
+        <v>173</v>
+      </c>
+      <c r="M7" s="5">
+        <v>20.05</v>
+      </c>
+      <c r="N7" s="5">
+        <v>17.829999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8">
-        <v>737</v>
+        <v>117</v>
+      </c>
+      <c r="B8" t="s">
+        <v>123</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -4104,19 +5045,235 @@
       </c>
       <c r="H8" t="b">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5.03</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="L8">
+        <v>145</v>
+      </c>
+      <c r="M8" s="5">
+        <v>18</v>
+      </c>
+      <c r="N8" s="5">
+        <v>16.5</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>5.65</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2.44</v>
+      </c>
+      <c r="L9">
+        <v>163</v>
+      </c>
+      <c r="M9" s="5">
+        <v>21.1</v>
+      </c>
+      <c r="N9" s="5">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>119</v>
+      </c>
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10" s="3">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="L10">
+        <v>127</v>
+      </c>
+      <c r="M10" s="5">
+        <v>18.7</v>
+      </c>
+      <c r="N10" s="5">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11" s="3">
+        <v>5.52</v>
+      </c>
+      <c r="K11" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="L11">
+        <v>180</v>
+      </c>
+      <c r="M11" s="5">
+        <v>21.3</v>
+      </c>
+      <c r="N11" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="K12" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="L12">
+        <v>182</v>
+      </c>
+      <c r="M12" s="5">
+        <v>26.06</v>
+      </c>
+      <c r="N12" s="5">
+        <v>27.66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13">
+        <v>737</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13" s="3">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="K13" s="3">
+        <v>2.52</v>
+      </c>
+      <c r="L13">
+        <v>139</v>
+      </c>
+      <c r="M13" s="5">
+        <v>20</v>
+      </c>
+      <c r="N13" s="5">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P14">
+    <sortCondition ref="A2:A14"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dinghies.xlsx
+++ b/dinghies.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soarsi\workspace\github\dinghyapi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soarsi\workspace\github\dinghy-search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E51A406-2736-4027-A20B-BD4C9004893B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53373745-EFC4-4356-AE83-056D4679C366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{424A2331-99F2-4D2E-BF59-9192B1CDA9D6}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="22530" windowHeight="15585" xr2:uid="{424A2331-99F2-4D2E-BF59-9192B1CDA9D6}"/>
   </bookViews>
   <sheets>
     <sheet name="RS" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="152">
   <si>
     <t>name</t>
   </si>
@@ -412,6 +412,90 @@
   </si>
   <si>
     <t>Nacra</t>
+  </si>
+  <si>
+    <t>/images/logos/ILCA.png</t>
+  </si>
+  <si>
+    <t>/images/logos/420-logo.png</t>
+  </si>
+  <si>
+    <t>/images/logos/470-logo.png</t>
+  </si>
+  <si>
+    <t>/images/logos/international-505-logo.png</t>
+  </si>
+  <si>
+    <t>/images/470-dinghy.jpg</t>
+  </si>
+  <si>
+    <t>/images/tera-pro.jpg</t>
+  </si>
+  <si>
+    <t>/images/tera-sport.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/2000.png</t>
+  </si>
+  <si>
+    <t>/images/logos/RS200.png</t>
+  </si>
+  <si>
+    <t>/images/logos/RS300.png</t>
+  </si>
+  <si>
+    <t>/images/logos/RS500.png</t>
+  </si>
+  <si>
+    <t>/images/logos/RS700.png</t>
+  </si>
+  <si>
+    <t>/images/logos/RS800.png</t>
+  </si>
+  <si>
+    <t>/images/logos/RSAeroLogo200x52.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/rscat16.png</t>
+  </si>
+  <si>
+    <t>/images/logos/RSCat14.png</t>
+  </si>
+  <si>
+    <t>/images/logos/RS-Feva-logo.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/RS-neo-horizontal.png</t>
+  </si>
+  <si>
+    <t>/images/logos/RSQuest.png</t>
+  </si>
+  <si>
+    <t>/images/logos/RSVenture.png</t>
+  </si>
+  <si>
+    <t>/images/logos/RSTera.png</t>
+  </si>
+  <si>
+    <t>/images/logos/Toura-Master-300x171.png</t>
+  </si>
+  <si>
+    <t>/images/logos/RSVareo-logo.png</t>
+  </si>
+  <si>
+    <t>/images/logos/Logo-RS-Zest.png</t>
+  </si>
+  <si>
+    <t>/images/logos/RS100.png</t>
+  </si>
+  <si>
+    <t>/images/logos/RS400-magenta.png</t>
+  </si>
+  <si>
+    <t>/images/logos/RS600_Logo_New_Black-300x114.png</t>
+  </si>
+  <si>
+    <t>/images/logos/RSVision.jpg</t>
   </si>
 </sst>
 </file>
@@ -801,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170DDF5A-0F38-402E-9EB4-88FDC06AA77D}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,8 +902,8 @@
     <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" customWidth="1"/>
-    <col min="16" max="16" width="19.140625" customWidth="1"/>
+    <col min="15" max="15" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -912,6 +996,9 @@
       <c r="N2" s="5">
         <v>10.119999999999999</v>
       </c>
+      <c r="O2" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -953,6 +1040,9 @@
       <c r="M3" s="5">
         <v>5.2</v>
       </c>
+      <c r="O3" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -994,6 +1084,9 @@
       <c r="M4" s="5">
         <v>6.3</v>
       </c>
+      <c r="O4" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1035,6 +1128,9 @@
       <c r="M5" s="5">
         <v>7.4</v>
       </c>
+      <c r="O5" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1076,6 +1172,9 @@
       <c r="M6" s="5">
         <v>8.9</v>
       </c>
+      <c r="O6" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1117,6 +1216,9 @@
       <c r="N7" s="5">
         <v>9</v>
       </c>
+      <c r="O7" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1158,6 +1260,9 @@
       <c r="N8" s="5">
         <v>12.82</v>
       </c>
+      <c r="O8" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1202,6 +1307,9 @@
       <c r="N9" s="5">
         <v>7</v>
       </c>
+      <c r="O9" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1240,6 +1348,9 @@
       <c r="M10" s="5">
         <v>6</v>
       </c>
+      <c r="O10" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1281,6 +1392,9 @@
       <c r="N11" s="5">
         <v>11</v>
       </c>
+      <c r="O11" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1322,6 +1436,12 @@
       <c r="M12" s="5">
         <v>4.8</v>
       </c>
+      <c r="O12" t="s">
+        <v>144</v>
+      </c>
+      <c r="P12" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1363,6 +1483,12 @@
       <c r="M13" s="5">
         <v>3.7</v>
       </c>
+      <c r="O13" t="s">
+        <v>144</v>
+      </c>
+      <c r="P13" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1404,6 +1530,9 @@
       <c r="N14" s="5">
         <v>14.6</v>
       </c>
+      <c r="O14" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1448,6 +1577,9 @@
       <c r="N15" s="5">
         <v>9.9</v>
       </c>
+      <c r="O15" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1489,8 +1621,11 @@
       <c r="N16" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1533,8 +1668,11 @@
       <c r="N17" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1571,8 +1709,11 @@
       <c r="M18" s="5">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1612,8 +1753,11 @@
       <c r="N19" s="5">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1656,8 +1800,11 @@
       <c r="N20" s="5">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1700,8 +1847,11 @@
       <c r="N21" s="5">
         <v>8.2899999999999991</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1741,8 +1891,11 @@
       <c r="M22" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1785,8 +1938,11 @@
       <c r="N23" s="5">
         <v>13.94</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1829,8 +1985,11 @@
       <c r="N24" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1870,8 +2029,11 @@
       <c r="M25" s="5">
         <v>12.14</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1914,8 +2076,11 @@
       <c r="N26" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1957,6 +2122,9 @@
       </c>
       <c r="N27" s="5">
         <v>21</v>
+      </c>
+      <c r="O27" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1973,7 +2141,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,6 +2149,7 @@
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9.140625" style="3"/>
     <col min="13" max="13" width="9.140625" style="5"/>
+    <col min="15" max="15" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2073,6 +2242,9 @@
       <c r="M2" s="5">
         <v>4.7</v>
       </c>
+      <c r="O2" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2114,6 +2286,9 @@
       <c r="M3" s="5">
         <v>5.7</v>
       </c>
+      <c r="O3" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2154,6 +2329,9 @@
       </c>
       <c r="M4" s="5">
         <v>7</v>
+      </c>
+      <c r="O4" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3251,8 +3429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8313B353-BF25-43AE-B003-13E2A48F1E77}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3265,8 +3443,8 @@
     <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3359,6 +3537,9 @@
       <c r="N2" s="5">
         <v>9</v>
       </c>
+      <c r="O2" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -3397,6 +3578,12 @@
       <c r="N3" s="5">
         <v>13</v>
       </c>
+      <c r="O3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -3440,6 +3627,9 @@
       </c>
       <c r="N4" s="5">
         <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -4719,7 +4909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FB941B-56F6-41E4-82A9-4C2756BCA6AC}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>

--- a/dinghies.xlsx
+++ b/dinghies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soarsi\workspace\github\dinghy-search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53373745-EFC4-4356-AE83-056D4679C366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF5B810-451E-41D2-9F97-0942D02DA5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="22530" windowHeight="15585" xr2:uid="{424A2331-99F2-4D2E-BF59-9192B1CDA9D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{424A2331-99F2-4D2E-BF59-9192B1CDA9D6}"/>
   </bookViews>
   <sheets>
     <sheet name="RS" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="248">
   <si>
     <t>name</t>
   </si>
@@ -426,9 +426,6 @@
     <t>/images/logos/international-505-logo.png</t>
   </si>
   <si>
-    <t>/images/470-dinghy.jpg</t>
-  </si>
-  <si>
     <t>/images/tera-pro.jpg</t>
   </si>
   <si>
@@ -496,6 +493,297 @@
   </si>
   <si>
     <t>/images/logos/RSVision.jpg</t>
+  </si>
+  <si>
+    <t>/images/aero-5.jpg</t>
+  </si>
+  <si>
+    <t>/images/aero-6.jpg</t>
+  </si>
+  <si>
+    <t>/images/aero-7.jpg</t>
+  </si>
+  <si>
+    <t>/images/aero-9.jpg</t>
+  </si>
+  <si>
+    <t>/images/2000.jpg</t>
+  </si>
+  <si>
+    <t>/images/rsfeva.jpg</t>
+  </si>
+  <si>
+    <t>/images/rs-quest.jpg</t>
+  </si>
+  <si>
+    <t>/images/rs-toura.jpg</t>
+  </si>
+  <si>
+    <t>/images/rs-vareo.jpg</t>
+  </si>
+  <si>
+    <t>/images/rs-venture.jpg</t>
+  </si>
+  <si>
+    <t>/images/rs-vision.jpg</t>
+  </si>
+  <si>
+    <t>/images/rs-zest.jpg</t>
+  </si>
+  <si>
+    <t>/images/rs-neo.jpg</t>
+  </si>
+  <si>
+    <t>/images/rs100.jpg</t>
+  </si>
+  <si>
+    <t>/images/rs200.jpg</t>
+  </si>
+  <si>
+    <t>/images/rs300.jpg</t>
+  </si>
+  <si>
+    <t>/images/rs400.jpg</t>
+  </si>
+  <si>
+    <t>/images/rs500.jpg</t>
+  </si>
+  <si>
+    <t>/images/rs600.jpg</t>
+  </si>
+  <si>
+    <t>/images/rs700.jpg</t>
+  </si>
+  <si>
+    <t>/images/rs800.jpg</t>
+  </si>
+  <si>
+    <t>/images/rs-cat14.jpg</t>
+  </si>
+  <si>
+    <t>/images/rs-cat16.jpg</t>
+  </si>
+  <si>
+    <t>/images/ILCA4.jpg</t>
+  </si>
+  <si>
+    <t>/images/ILCA6.jpg</t>
+  </si>
+  <si>
+    <t>/images/ILCA7.jpg</t>
+  </si>
+  <si>
+    <t>/images/blaze.jpg</t>
+  </si>
+  <si>
+    <t>/images/contender.jpg</t>
+  </si>
+  <si>
+    <t>/images/europe.jpg</t>
+  </si>
+  <si>
+    <t>/images/finn.jpg</t>
+  </si>
+  <si>
+    <t>/images/fusion.jpg</t>
+  </si>
+  <si>
+    <t>/images/k1.jpg</t>
+  </si>
+  <si>
+    <t>/images/ok.jpg</t>
+  </si>
+  <si>
+    <t>/images/optimist.jpg</t>
+  </si>
+  <si>
+    <t>/images/phantom.jpg</t>
+  </si>
+  <si>
+    <t>/images/solo.jpg</t>
+  </si>
+  <si>
+    <t>/images/solution.jpg</t>
+  </si>
+  <si>
+    <t>/images/streaker.jpg</t>
+  </si>
+  <si>
+    <t>/images/supernova.jpg</t>
+  </si>
+  <si>
+    <t>/images/byte-cII.jpg</t>
+  </si>
+  <si>
+    <t>/images/international-canoe.jpg</t>
+  </si>
+  <si>
+    <t>/images/international-moth.jpg</t>
+  </si>
+  <si>
+    <t>/images/musto-skiff.jpg</t>
+  </si>
+  <si>
+    <t>/images/topper.jpg</t>
+  </si>
+  <si>
+    <t>/images/waszp.jpg</t>
+  </si>
+  <si>
+    <t>/images/devoti-d-one.jpg</t>
+  </si>
+  <si>
+    <t>/images/devoti-d-zero.jpg</t>
+  </si>
+  <si>
+    <t>/images/hadron-h2.jpg</t>
+  </si>
+  <si>
+    <t>/images/lightning-368.jpg</t>
+  </si>
+  <si>
+    <t>/images/420.jpg</t>
+  </si>
+  <si>
+    <t>/images/505.jpg</t>
+  </si>
+  <si>
+    <t>/images/470.jpg</t>
+  </si>
+  <si>
+    <t>/images/29er.jpg</t>
+  </si>
+  <si>
+    <t>/images/49er.jpg</t>
+  </si>
+  <si>
+    <t>/images/49er-fx.jpg</t>
+  </si>
+  <si>
+    <t>/images/b14.jpg</t>
+  </si>
+  <si>
+    <t>/images/albacore.jpg</t>
+  </si>
+  <si>
+    <t>Comet</t>
+  </si>
+  <si>
+    <t>/images/comet.jpg</t>
+  </si>
+  <si>
+    <t>/images/buzz.jpg</t>
+  </si>
+  <si>
+    <t>/images/cadet.jpg</t>
+  </si>
+  <si>
+    <t>/images/cherub.jpg</t>
+  </si>
+  <si>
+    <t>/images/comet-trio.jpg</t>
+  </si>
+  <si>
+    <t>/images/enterprise.jpg</t>
+  </si>
+  <si>
+    <t>/images/fireball.jpg</t>
+  </si>
+  <si>
+    <t>/images/flying-fifteen.jpg</t>
+  </si>
+  <si>
+    <t>/images/gp14.jpg</t>
+  </si>
+  <si>
+    <t>/images/firefly.jpg</t>
+  </si>
+  <si>
+    <t>/images/graduate.jpg</t>
+  </si>
+  <si>
+    <t>/images/hornet.jpg</t>
+  </si>
+  <si>
+    <t>/images/international-14.jpg</t>
+  </si>
+  <si>
+    <t>/images/kestrel.jpg</t>
+  </si>
+  <si>
+    <t>/images/lark.jpg</t>
+  </si>
+  <si>
+    <t>/images/merlin-rocket.jpg</t>
+  </si>
+  <si>
+    <t>/images/miracle.jpg</t>
+  </si>
+  <si>
+    <t>/images/mirror.jpg</t>
+  </si>
+  <si>
+    <t>/images/national-12.jpg</t>
+  </si>
+  <si>
+    <t>/images/osprey.jpg</t>
+  </si>
+  <si>
+    <t>/images/seafly.jpg</t>
+  </si>
+  <si>
+    <t>/images/scorpion.jpg</t>
+  </si>
+  <si>
+    <t>/images/tasar.jpg</t>
+  </si>
+  <si>
+    <t>/images/wanderer.jpg</t>
+  </si>
+  <si>
+    <t>/images/wayfarer.jpg</t>
+  </si>
+  <si>
+    <t>/images/k6.jpg</t>
+  </si>
+  <si>
+    <t>/images/alto.jpg</t>
+  </si>
+  <si>
+    <t>/images/challenger.jpg</t>
+  </si>
+  <si>
+    <t>/images/spitfire.jpg</t>
+  </si>
+  <si>
+    <t>/images/dart-15.jpg</t>
+  </si>
+  <si>
+    <t>/images/dart-18.jpg</t>
+  </si>
+  <si>
+    <t>/images/hurricane.jpg</t>
+  </si>
+  <si>
+    <t>/images/nacra-15.jpg</t>
+  </si>
+  <si>
+    <t>/images/nacra-17.jpg</t>
+  </si>
+  <si>
+    <t>/images/nacra-500.jpg</t>
+  </si>
+  <si>
+    <t>/images/nacra-570.jpg</t>
+  </si>
+  <si>
+    <t>/images/nacra-f16.jpg</t>
+  </si>
+  <si>
+    <t>/images/nacra-f18.jpg</t>
+  </si>
+  <si>
+    <t>/images/nacra-f20.jpg</t>
   </si>
 </sst>
 </file>
@@ -885,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170DDF5A-0F38-402E-9EB4-88FDC06AA77D}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,16 +1182,16 @@
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="6" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="5" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -997,7 +1285,10 @@
         <v>10.119999999999999</v>
       </c>
       <c r="O2" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="P2" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1041,7 +1332,10 @@
         <v>5.2</v>
       </c>
       <c r="O3" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="P3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1085,7 +1379,10 @@
         <v>6.3</v>
       </c>
       <c r="O4" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="P4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1129,7 +1426,10 @@
         <v>7.4</v>
       </c>
       <c r="O5" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="P5" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1173,7 +1473,10 @@
         <v>8.9</v>
       </c>
       <c r="O6" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="P6" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1217,7 +1520,10 @@
         <v>9</v>
       </c>
       <c r="O7" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="P7" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1261,7 +1567,10 @@
         <v>12.82</v>
       </c>
       <c r="O8" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="P8" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1308,7 +1617,10 @@
         <v>7</v>
       </c>
       <c r="O9" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="P9" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1349,7 +1661,10 @@
         <v>6</v>
       </c>
       <c r="O10" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="P10" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1393,7 +1708,10 @@
         <v>11</v>
       </c>
       <c r="O11" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="P11" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1437,10 +1755,10 @@
         <v>4.8</v>
       </c>
       <c r="O12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1484,10 +1802,10 @@
         <v>3.7</v>
       </c>
       <c r="O13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1531,7 +1849,10 @@
         <v>14.6</v>
       </c>
       <c r="O14" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="P14" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1578,7 +1899,10 @@
         <v>9.9</v>
       </c>
       <c r="O15" t="s">
-        <v>146</v>
+        <v>145</v>
+      </c>
+      <c r="P15" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1622,10 +1946,13 @@
         <v>14</v>
       </c>
       <c r="O16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="P16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1669,10 +1996,13 @@
         <v>12</v>
       </c>
       <c r="O17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="P17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1710,10 +2040,13 @@
         <v>7.1</v>
       </c>
       <c r="O18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="P18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1754,10 +2087,13 @@
         <v>12.5</v>
       </c>
       <c r="O19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="P19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1801,10 +2137,13 @@
         <v>12.5</v>
       </c>
       <c r="O20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="P20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1848,10 +2187,13 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="O21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="P21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1892,10 +2234,13 @@
         <v>10</v>
       </c>
       <c r="O22" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="P22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1939,10 +2284,13 @@
         <v>13.94</v>
       </c>
       <c r="O23" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="P23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1986,10 +2334,13 @@
         <v>14</v>
       </c>
       <c r="O24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="P24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -2030,10 +2381,13 @@
         <v>12.14</v>
       </c>
       <c r="O25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="P25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2077,10 +2431,13 @@
         <v>16</v>
       </c>
       <c r="O26" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="P26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2124,7 +2481,10 @@
         <v>21</v>
       </c>
       <c r="O27" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="P27" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2141,7 +2501,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2150,6 +2510,7 @@
     <col min="10" max="11" width="9.140625" style="3"/>
     <col min="13" max="13" width="9.140625" style="5"/>
     <col min="15" max="15" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2245,6 +2606,9 @@
       <c r="O2" t="s">
         <v>124</v>
       </c>
+      <c r="P2" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2289,6 +2653,9 @@
       <c r="O3" t="s">
         <v>124</v>
       </c>
+      <c r="P3" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2332,6 +2699,9 @@
       </c>
       <c r="O4" t="s">
         <v>124</v>
+      </c>
+      <c r="P4" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2342,10 +2712,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58FFF61-D2B4-441A-BA1C-302767283A2C}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2353,14 +2723,15 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
     <col min="10" max="11" width="9.140625" style="3"/>
     <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="5"/>
     <col min="14" max="14" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2453,6 +2824,9 @@
       <c r="M2" s="5">
         <v>10.4</v>
       </c>
+      <c r="P2" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2494,16 +2868,16 @@
       <c r="M3" s="5">
         <v>6.8</v>
       </c>
+      <c r="P3" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" t="s">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="C4">
-        <v>966</v>
+        <v>1210</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2521,30 +2895,33 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>4.88</v>
+        <v>3.45</v>
       </c>
       <c r="K4" s="3">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="L4">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="M4" s="5">
-        <v>10.3</v>
+        <v>6.5</v>
+      </c>
+      <c r="P4" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="C5">
-        <v>950</v>
+        <v>966</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2559,36 +2936,36 @@
         <v>0</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="3">
-        <v>4.2300000000000004</v>
+        <v>4.88</v>
       </c>
       <c r="K5" s="3">
-        <v>2.31</v>
+        <v>1.5</v>
       </c>
       <c r="L5">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="M5" s="5">
-        <v>11.5</v>
-      </c>
-      <c r="N5" s="5">
-        <v>13.2</v>
+        <v>10.3</v>
+      </c>
+      <c r="P5" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
       </c>
       <c r="C6">
-        <v>1032</v>
+        <v>950</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2603,30 +2980,39 @@
         <v>0</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" s="3">
-        <v>4.2</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="K6" s="3">
-        <v>1.42</v>
+        <v>2.31</v>
       </c>
       <c r="L6">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="M6" s="5">
-        <v>8.1</v>
+        <v>11.5</v>
+      </c>
+      <c r="N6" s="5">
+        <v>13.2</v>
+      </c>
+      <c r="P6" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
       </c>
       <c r="C7">
-        <v>1147</v>
+        <v>1032</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2647,27 +3033,27 @@
         <v>0</v>
       </c>
       <c r="J7" s="3">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="K7" s="3">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="L7">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M7" s="5">
-        <v>7</v>
+        <v>8.1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8">
-        <v>1047</v>
+        <v>1147</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2688,27 +3074,30 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>4.53</v>
+        <v>3.35</v>
       </c>
       <c r="K8" s="3">
-        <v>1.58</v>
+        <v>1.38</v>
       </c>
       <c r="L8">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="M8" s="5">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="P8" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="C9">
-        <v>1280</v>
+        <v>1047</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2729,27 +3118,30 @@
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>3.6</v>
+        <v>4.53</v>
       </c>
       <c r="K9" s="3">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="L9">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="M9" s="5">
-        <v>6.45</v>
+        <v>10</v>
+      </c>
+      <c r="P9" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C10">
-        <v>1045</v>
+        <v>1280</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2770,24 +3162,30 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="K10" s="3">
-        <v>1.95</v>
+        <v>1.45</v>
       </c>
       <c r="L10">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M10" s="5">
-        <v>9.3000000000000007</v>
+        <v>6.45</v>
+      </c>
+      <c r="P10" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
       </c>
       <c r="C11">
-        <v>847</v>
+        <v>1045</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2808,24 +3206,27 @@
         <v>0</v>
       </c>
       <c r="J11" s="3">
-        <v>5.18</v>
+        <v>4.2</v>
       </c>
       <c r="K11" s="3">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="L11">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="M11" s="5">
-        <v>10</v>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="P11" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C12">
-        <v>570</v>
+        <v>847</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2846,30 +3247,33 @@
         <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>4.3600000000000003</v>
+        <v>5.18</v>
       </c>
       <c r="K12" s="3">
-        <v>2.25</v>
+        <v>1.01</v>
+      </c>
+      <c r="L12">
+        <v>50</v>
       </c>
       <c r="M12" s="5">
-        <v>8.25</v>
+        <v>10</v>
+      </c>
+      <c r="P12" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="C13">
-        <v>1070</v>
+        <v>570</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2884,30 +3288,33 @@
         <v>0</v>
       </c>
       <c r="J13" s="3">
-        <v>4.57</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="K13" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="L13">
-        <v>107</v>
+        <v>2.25</v>
       </c>
       <c r="M13" s="5">
-        <v>11</v>
+        <v>8.25</v>
+      </c>
+      <c r="P13" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
       </c>
       <c r="C14">
-        <v>1160</v>
+        <v>1070</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2922,27 +3329,27 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>3.68</v>
+        <v>4.57</v>
       </c>
       <c r="K14" s="3">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="L14">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="M14" s="5">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="P14" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C15">
-        <v>837</v>
+        <v>1160</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2957,33 +3364,36 @@
         <v>0</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>4.55</v>
+        <v>3.68</v>
       </c>
       <c r="K15" s="3">
-        <v>2.35</v>
+        <v>1.38</v>
       </c>
       <c r="L15">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M15" s="5">
-        <v>11.8</v>
-      </c>
-      <c r="N15" s="5">
-        <v>15.5</v>
+        <v>7</v>
+      </c>
+      <c r="P15" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
       </c>
       <c r="C16">
-        <v>1100</v>
+        <v>837</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2998,33 +3408,36 @@
         <v>0</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="3">
-        <v>4</v>
+        <v>4.55</v>
       </c>
       <c r="K16" s="3">
-        <v>1.42</v>
+        <v>2.35</v>
       </c>
       <c r="L16">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="M16" s="5">
-        <v>8.9499999999999993</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>11.8</v>
+      </c>
+      <c r="N16" s="5">
+        <v>15.5</v>
+      </c>
+      <c r="P16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C17">
-        <v>1628</v>
+        <v>1100</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -3045,27 +3458,30 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
-        <v>2.36</v>
+        <v>4</v>
       </c>
       <c r="K17" s="3">
-        <v>1.1200000000000001</v>
+        <v>1.42</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="M17" s="5">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="P17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C18">
-        <v>1000</v>
+        <v>1628</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -3086,24 +3502,30 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>4.42</v>
+        <v>2.36</v>
       </c>
       <c r="K18" s="3">
-        <v>1.64</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="L18">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="M18" s="5">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3.3</v>
+      </c>
+      <c r="P18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
       </c>
       <c r="C19">
-        <v>1142</v>
+        <v>1000</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -3124,24 +3546,27 @@
         <v>0</v>
       </c>
       <c r="J19" s="3">
-        <v>3.78</v>
+        <v>4.42</v>
       </c>
       <c r="K19" s="3">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="L19">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="M19" s="5">
-        <v>8.36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="P19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20">
-        <v>1105</v>
+        <v>1142</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -3162,27 +3587,27 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>3.9</v>
+        <v>3.78</v>
       </c>
       <c r="K20" s="3">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="L20">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="M20" s="5">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8.36</v>
+      </c>
+      <c r="P20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="C21">
-        <v>1124</v>
+        <v>1105</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -3203,27 +3628,30 @@
         <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>3.88</v>
+        <v>3.9</v>
       </c>
       <c r="K21" s="3">
-        <v>1.37</v>
+        <v>1.75</v>
       </c>
       <c r="L21">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="M21" s="5">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8.5</v>
+      </c>
+      <c r="P21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
         <v>104</v>
       </c>
       <c r="C22">
-        <v>1075</v>
+        <v>1124</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -3244,27 +3672,30 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>4.3899999999999997</v>
+        <v>3.88</v>
       </c>
       <c r="K22" s="3">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="L22">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M22" s="5">
-        <v>8.2200000000000006</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>6.5</v>
+      </c>
+      <c r="P22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C23">
-        <v>1400</v>
+        <v>1075</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -3285,27 +3716,30 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>3.4</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="K23" s="3">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="L23">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M23" s="5">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="P23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
         <v>107</v>
       </c>
       <c r="C24">
-        <v>1347</v>
+        <v>1400</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -3335,18 +3769,21 @@
         <v>45</v>
       </c>
       <c r="M24" s="5">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>4.2</v>
+      </c>
+      <c r="P24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
         <v>107</v>
       </c>
       <c r="C25">
-        <v>1294</v>
+        <v>1347</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -3376,15 +3813,21 @@
         <v>45</v>
       </c>
       <c r="M25" s="5">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5.3</v>
+      </c>
+      <c r="P25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+      <c r="B26" t="s">
+        <v>107</v>
       </c>
       <c r="C26">
-        <v>570</v>
+        <v>1294</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -3405,21 +3848,65 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L26">
+        <v>45</v>
+      </c>
+      <c r="M26" s="5">
+        <v>6.4</v>
+      </c>
+      <c r="P26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27">
+        <v>570</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>3.35</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K27" s="3">
         <v>2.25</v>
       </c>
-      <c r="L26">
+      <c r="L27">
         <v>48</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M27" s="5">
         <v>8.1999999999999993</v>
       </c>
+      <c r="P27" t="s">
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P26">
-    <sortCondition ref="A2:A26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P27">
+    <sortCondition ref="A2:A27"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3429,22 +3916,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8313B353-BF25-43AE-B003-13E2A48F1E77}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="3"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="5" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3540,6 +4028,9 @@
       <c r="O2" t="s">
         <v>125</v>
       </c>
+      <c r="P2" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -3582,7 +4073,7 @@
         <v>126</v>
       </c>
       <c r="P3" t="s">
-        <v>128</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -3631,6 +4122,9 @@
       <c r="O4" t="s">
         <v>127</v>
       </c>
+      <c r="P4" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3675,6 +4169,9 @@
       <c r="N5" s="5">
         <v>16.829999999999998</v>
       </c>
+      <c r="P5" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3716,6 +4213,9 @@
       <c r="N6" s="5">
         <v>38</v>
       </c>
+      <c r="P6" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3757,6 +4257,9 @@
       <c r="N7" s="5">
         <v>25.1</v>
       </c>
+      <c r="P7" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3798,6 +4301,9 @@
       <c r="M8" s="5">
         <v>11.61</v>
       </c>
+      <c r="P8" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3839,6 +4345,9 @@
       <c r="N9" s="5">
         <v>16.8</v>
       </c>
+      <c r="P9" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3880,6 +4389,9 @@
       <c r="N10" s="5">
         <v>29.2</v>
       </c>
+      <c r="P10" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3924,6 +4436,9 @@
       <c r="N11" s="5">
         <v>17.399999999999999</v>
       </c>
+      <c r="P11" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3965,6 +4480,9 @@
       <c r="N12" s="5">
         <v>4.25</v>
       </c>
+      <c r="P12" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4003,6 +4521,9 @@
       <c r="N13" s="5">
         <v>21</v>
       </c>
+      <c r="P13" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4044,6 +4565,9 @@
       <c r="N14" s="5">
         <v>9.2799999999999994</v>
       </c>
+      <c r="P14" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4082,6 +4606,9 @@
       <c r="M15" s="5">
         <v>10.7</v>
       </c>
+      <c r="P15" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4123,8 +4650,11 @@
       <c r="N16" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -4164,8 +4694,11 @@
       <c r="M17" s="5">
         <v>8.36</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -4208,8 +4741,11 @@
       <c r="N18" s="5">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -4249,8 +4785,11 @@
       <c r="N19" s="5">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -4287,8 +4826,11 @@
       <c r="M20" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -4325,8 +4867,11 @@
       <c r="M21" s="5">
         <v>9.75</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -4366,8 +4911,11 @@
       <c r="N22" s="5">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -4407,8 +4955,11 @@
       <c r="N23" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -4448,8 +4999,11 @@
       <c r="N24" s="5">
         <v>11.15</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -4489,8 +5043,11 @@
       <c r="N25" s="5">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -4530,8 +5087,11 @@
       <c r="N26" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -4571,8 +5131,11 @@
       <c r="N27" s="5">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -4612,8 +5175,11 @@
       <c r="N28" s="5">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>87</v>
       </c>
@@ -4650,8 +5216,11 @@
       <c r="M29" s="5">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -4691,8 +5260,11 @@
       <c r="N30" s="5">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -4732,8 +5304,11 @@
       <c r="N31" s="5">
         <v>11.14</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -4776,8 +5351,11 @@
       <c r="N32" s="5">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P32" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -4814,8 +5392,11 @@
       <c r="M33" s="5">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P33" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -4855,8 +5436,11 @@
       <c r="N34" s="5">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P34" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>93</v>
       </c>
@@ -4895,6 +5479,9 @@
       </c>
       <c r="N35" s="5">
         <v>13.5</v>
+      </c>
+      <c r="P35" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -4910,7 +5497,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4924,7 +5511,7 @@
     <col min="13" max="13" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5014,6 +5601,9 @@
       <c r="M2" s="5">
         <v>8.0399999999999991</v>
       </c>
+      <c r="P2" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -5052,6 +5642,9 @@
       <c r="M3" s="5">
         <v>12.29</v>
       </c>
+      <c r="P3" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -5090,6 +5683,9 @@
       <c r="M4" s="5">
         <v>16.079999999999998</v>
       </c>
+      <c r="P4" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -5131,6 +5727,9 @@
       <c r="N5" s="5">
         <v>21</v>
       </c>
+      <c r="P5" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -5172,6 +5771,9 @@
       <c r="N6" s="5">
         <v>15.91</v>
       </c>
+      <c r="P6" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -5213,6 +5815,9 @@
       <c r="N7" s="5">
         <v>17.829999999999998</v>
       </c>
+      <c r="P7" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -5254,6 +5859,9 @@
       <c r="N8" s="5">
         <v>16.5</v>
       </c>
+      <c r="P8" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -5295,6 +5903,9 @@
       <c r="N9" s="5">
         <v>21</v>
       </c>
+      <c r="P9" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -5336,6 +5947,9 @@
       <c r="N10" s="5">
         <v>17.5</v>
       </c>
+      <c r="P10" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -5377,6 +5991,9 @@
       <c r="N11" s="5">
         <v>21</v>
       </c>
+      <c r="P11" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -5418,6 +6035,9 @@
       <c r="N12" s="5">
         <v>27.66</v>
       </c>
+      <c r="P12" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -5458,6 +6078,9 @@
       </c>
       <c r="N13" s="5">
         <v>18</v>
+      </c>
+      <c r="P13" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/dinghies.xlsx
+++ b/dinghies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soarsi\workspace\github\dinghy-search\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\iain\Development\dinghy-search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF5B810-451E-41D2-9F97-0942D02DA5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B009F385-DD3F-49ED-90E5-5EB0990D3884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{424A2331-99F2-4D2E-BF59-9192B1CDA9D6}"/>
+    <workbookView xWindow="0" yWindow="948" windowWidth="14340" windowHeight="8880" xr2:uid="{424A2331-99F2-4D2E-BF59-9192B1CDA9D6}"/>
   </bookViews>
   <sheets>
     <sheet name="RS" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="310">
   <si>
     <t>name</t>
   </si>
@@ -417,15 +417,6 @@
     <t>/images/logos/ILCA.png</t>
   </si>
   <si>
-    <t>/images/logos/420-logo.png</t>
-  </si>
-  <si>
-    <t>/images/logos/470-logo.png</t>
-  </si>
-  <si>
-    <t>/images/logos/international-505-logo.png</t>
-  </si>
-  <si>
     <t>/images/tera-pro.jpg</t>
   </si>
   <si>
@@ -450,15 +441,6 @@
     <t>/images/logos/RS800.png</t>
   </si>
   <si>
-    <t>/images/logos/RSAeroLogo200x52.jpg</t>
-  </si>
-  <si>
-    <t>/images/logos/rscat16.png</t>
-  </si>
-  <si>
-    <t>/images/logos/RSCat14.png</t>
-  </si>
-  <si>
     <t>/images/logos/RS-Feva-logo.jpg</t>
   </si>
   <si>
@@ -784,6 +766,210 @@
   </si>
   <si>
     <t>/images/nacra-f20.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/420.png</t>
+  </si>
+  <si>
+    <t>/images/logos/blaze.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/byte-cii.png</t>
+  </si>
+  <si>
+    <t>/images/logos/comet.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/contender.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/d-one.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/europe.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/finn.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/d-zero.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/hadron-h2.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/international-canoe.png</t>
+  </si>
+  <si>
+    <t>/images/logos/musto-skiff.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/optimist.png</t>
+  </si>
+  <si>
+    <t>/images/logos/phantom.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/solo.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/solution.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/supernova.png</t>
+  </si>
+  <si>
+    <t>/images/logos/470.png</t>
+  </si>
+  <si>
+    <t>/images/logos/international-505.png</t>
+  </si>
+  <si>
+    <t>/images/logos/29erlogo.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/albacore.jog</t>
+  </si>
+  <si>
+    <t>/images/logos/b14.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/buzz.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/cadet.png</t>
+  </si>
+  <si>
+    <t>/images/logos/fireball-logo.png</t>
+  </si>
+  <si>
+    <t>/images/logos/flying-fifteen.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/fusionlogo.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/graduate.png</t>
+  </si>
+  <si>
+    <t>/images/logos/hornet.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/i14-logo.png</t>
+  </si>
+  <si>
+    <t>/images/logos/merlin-rocket.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/mirror.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/wanderer.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/dart-15.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/international-moth.png</t>
+  </si>
+  <si>
+    <t>/images/logos/k1-logo.png</t>
+  </si>
+  <si>
+    <t>/images/logos/lightning-369.png</t>
+  </si>
+  <si>
+    <t>/images/logos/ok-dinghy.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/streaker.png</t>
+  </si>
+  <si>
+    <t>/images/logos/topper.png</t>
+  </si>
+  <si>
+    <t>/images/logos/waszp.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/k6logo.png</t>
+  </si>
+  <si>
+    <t>/images/logos/kestrel-logo.png</t>
+  </si>
+  <si>
+    <t>/images/logos/lark-logo.png</t>
+  </si>
+  <si>
+    <t>/images/logos/tasar-logo.png</t>
+  </si>
+  <si>
+    <t>/images/logos/miracle.png</t>
+  </si>
+  <si>
+    <t>/images/logos/osprey.png</t>
+  </si>
+  <si>
+    <t>/images/logos/wayfarer.png</t>
+  </si>
+  <si>
+    <t>/images/logos/national-12.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/scorpion.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/seafly.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/alto.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/cherub.png</t>
+  </si>
+  <si>
+    <t>/images/logos/challenger.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/hurricane.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/nacra-15.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/dart-18.png</t>
+  </si>
+  <si>
+    <t>/images/logos/nacra-17.png</t>
+  </si>
+  <si>
+    <t>/images/logos/nacra-500.png</t>
+  </si>
+  <si>
+    <t>/images/logos/nacra-570.png</t>
+  </si>
+  <si>
+    <t>/images/logos/nacra-f16.png</t>
+  </si>
+  <si>
+    <t>/images/logos/nacra-f18.png</t>
+  </si>
+  <si>
+    <t>/images/logos/nacra-f20.png</t>
+  </si>
+  <si>
+    <t>/images/logos/spitfire-logo.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/gp14.png</t>
+  </si>
+  <si>
+    <t>/images/logos/rs-aero.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/rs-cat14.png</t>
+  </si>
+  <si>
+    <t>/images/logos/rs-cat16.png</t>
   </si>
 </sst>
 </file>
@@ -1173,28 +1359,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170DDF5A-0F38-402E-9EB4-88FDC06AA77D}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="3" customWidth="1"/>
     <col min="11" max="11" width="6" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1244,7 +1430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -1285,13 +1471,13 @@
         <v>10.119999999999999</v>
       </c>
       <c r="O2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1332,13 +1518,13 @@
         <v>5.2</v>
       </c>
       <c r="O3" t="s">
-        <v>136</v>
+        <v>307</v>
       </c>
       <c r="P3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1379,13 +1565,13 @@
         <v>6.3</v>
       </c>
       <c r="O4" t="s">
-        <v>136</v>
+        <v>307</v>
       </c>
       <c r="P4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1426,13 +1612,13 @@
         <v>7.4</v>
       </c>
       <c r="O5" t="s">
-        <v>136</v>
+        <v>307</v>
       </c>
       <c r="P5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1473,13 +1659,13 @@
         <v>8.9</v>
       </c>
       <c r="O6" t="s">
-        <v>136</v>
+        <v>307</v>
       </c>
       <c r="P6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1520,13 +1706,13 @@
         <v>9</v>
       </c>
       <c r="O7" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="P7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1567,13 +1753,13 @@
         <v>12.82</v>
       </c>
       <c r="O8" t="s">
-        <v>137</v>
+        <v>309</v>
       </c>
       <c r="P8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1617,13 +1803,13 @@
         <v>7</v>
       </c>
       <c r="O9" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="P9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1661,13 +1847,13 @@
         <v>6</v>
       </c>
       <c r="O10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="P10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1708,13 +1894,13 @@
         <v>11</v>
       </c>
       <c r="O11" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="P11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1755,13 +1941,13 @@
         <v>4.8</v>
       </c>
       <c r="O12" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="P12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1802,13 +1988,13 @@
         <v>3.7</v>
       </c>
       <c r="O13" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="P13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -1849,13 +2035,13 @@
         <v>14.6</v>
       </c>
       <c r="O14" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="P14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1899,13 +2085,13 @@
         <v>9.9</v>
       </c>
       <c r="O15" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="P15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1946,13 +2132,13 @@
         <v>14</v>
       </c>
       <c r="O16" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="P16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1996,13 +2182,13 @@
         <v>12</v>
       </c>
       <c r="O17" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="P17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -2040,13 +2226,13 @@
         <v>7.1</v>
       </c>
       <c r="O18" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2087,13 +2273,13 @@
         <v>12.5</v>
       </c>
       <c r="O19" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="P19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2137,13 +2323,13 @@
         <v>12.5</v>
       </c>
       <c r="O20" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="P20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -2187,13 +2373,13 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="O21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P21" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -2234,13 +2420,13 @@
         <v>10</v>
       </c>
       <c r="O22" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P22" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -2284,13 +2470,13 @@
         <v>13.94</v>
       </c>
       <c r="O23" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="P23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -2334,13 +2520,13 @@
         <v>14</v>
       </c>
       <c r="O24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -2381,13 +2567,13 @@
         <v>12.14</v>
       </c>
       <c r="O25" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="P25" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2431,13 +2617,13 @@
         <v>16</v>
       </c>
       <c r="O26" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2481,10 +2667,10 @@
         <v>21</v>
       </c>
       <c r="O27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P27" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2504,16 +2690,16 @@
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="3"/>
-    <col min="13" max="13" width="9.140625" style="5"/>
-    <col min="15" max="15" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.109375" style="3"/>
+    <col min="13" max="13" width="9.109375" style="5"/>
+    <col min="15" max="15" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2563,7 +2749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -2607,10 +2793,10 @@
         <v>124</v>
       </c>
       <c r="P2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -2654,10 +2840,10 @@
         <v>124</v>
       </c>
       <c r="P3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -2701,7 +2887,7 @@
         <v>124</v>
       </c>
       <c r="P4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2714,27 +2900,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58FFF61-D2B4-441A-BA1C-302767283A2C}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="3"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="5"/>
-    <col min="14" max="14" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="10" max="11" width="8.88671875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2784,7 +2971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -2824,11 +3011,14 @@
       <c r="M2" s="5">
         <v>10.4</v>
       </c>
+      <c r="O2" t="s">
+        <v>243</v>
+      </c>
       <c r="P2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -2868,13 +3058,16 @@
       <c r="M3" s="5">
         <v>6.8</v>
       </c>
+      <c r="O3" t="s">
+        <v>244</v>
+      </c>
       <c r="P3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C4">
         <v>1210</v>
@@ -2909,11 +3102,14 @@
       <c r="M4" s="5">
         <v>6.5</v>
       </c>
+      <c r="O4" t="s">
+        <v>245</v>
+      </c>
       <c r="P4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -2953,11 +3149,14 @@
       <c r="M5" s="5">
         <v>10.3</v>
       </c>
+      <c r="O5" t="s">
+        <v>246</v>
+      </c>
       <c r="P5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -3000,11 +3199,14 @@
       <c r="N6" s="5">
         <v>13.2</v>
       </c>
+      <c r="O6" t="s">
+        <v>247</v>
+      </c>
       <c r="P6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -3044,11 +3246,14 @@
       <c r="M7" s="5">
         <v>8.1</v>
       </c>
+      <c r="O7" t="s">
+        <v>250</v>
+      </c>
       <c r="P7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -3085,11 +3290,14 @@
       <c r="M8" s="5">
         <v>7</v>
       </c>
+      <c r="O8" t="s">
+        <v>248</v>
+      </c>
       <c r="P8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -3129,11 +3337,14 @@
       <c r="M9" s="5">
         <v>10</v>
       </c>
+      <c r="O9" t="s">
+        <v>249</v>
+      </c>
       <c r="P9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -3173,11 +3384,14 @@
       <c r="M10" s="5">
         <v>6.45</v>
       </c>
+      <c r="O10" t="s">
+        <v>268</v>
+      </c>
       <c r="P10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -3217,11 +3431,14 @@
       <c r="M11" s="5">
         <v>9.3000000000000007</v>
       </c>
+      <c r="O11" t="s">
+        <v>251</v>
+      </c>
       <c r="P11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -3258,11 +3475,14 @@
       <c r="M12" s="5">
         <v>10</v>
       </c>
+      <c r="O12" t="s">
+        <v>252</v>
+      </c>
       <c r="P12" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>112</v>
       </c>
@@ -3296,11 +3516,14 @@
       <c r="M13" s="5">
         <v>8.25</v>
       </c>
+      <c r="O13" t="s">
+        <v>276</v>
+      </c>
       <c r="P13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -3340,11 +3563,14 @@
       <c r="M14" s="5">
         <v>11</v>
       </c>
+      <c r="O14" t="s">
+        <v>277</v>
+      </c>
       <c r="P14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -3381,11 +3607,14 @@
       <c r="M15" s="5">
         <v>7</v>
       </c>
+      <c r="O15" t="s">
+        <v>278</v>
+      </c>
       <c r="P15" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -3428,11 +3657,14 @@
       <c r="N16" s="5">
         <v>15.5</v>
       </c>
+      <c r="O16" t="s">
+        <v>253</v>
+      </c>
       <c r="P16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -3469,11 +3701,14 @@
       <c r="M17" s="5">
         <v>8.9499999999999993</v>
       </c>
+      <c r="O17" t="s">
+        <v>279</v>
+      </c>
       <c r="P17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -3513,11 +3748,14 @@
       <c r="M18" s="5">
         <v>3.3</v>
       </c>
+      <c r="O18" t="s">
+        <v>254</v>
+      </c>
       <c r="P18" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -3557,11 +3795,14 @@
       <c r="M19" s="5">
         <v>9.8000000000000007</v>
       </c>
+      <c r="O19" t="s">
+        <v>255</v>
+      </c>
       <c r="P19" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -3598,11 +3839,14 @@
       <c r="M20" s="5">
         <v>8.36</v>
       </c>
+      <c r="O20" t="s">
+        <v>256</v>
+      </c>
       <c r="P20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -3639,11 +3883,14 @@
       <c r="M21" s="5">
         <v>8.5</v>
       </c>
+      <c r="O21" t="s">
+        <v>257</v>
+      </c>
       <c r="P21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -3683,11 +3930,14 @@
       <c r="M22" s="5">
         <v>6.5</v>
       </c>
+      <c r="O22" t="s">
+        <v>280</v>
+      </c>
       <c r="P22" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -3727,11 +3977,14 @@
       <c r="M23" s="5">
         <v>8.2200000000000006</v>
       </c>
+      <c r="O23" t="s">
+        <v>258</v>
+      </c>
       <c r="P23" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -3771,11 +4024,14 @@
       <c r="M24" s="5">
         <v>4.2</v>
       </c>
+      <c r="O24" t="s">
+        <v>281</v>
+      </c>
       <c r="P24" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -3815,11 +4071,14 @@
       <c r="M25" s="5">
         <v>5.3</v>
       </c>
+      <c r="O25" t="s">
+        <v>281</v>
+      </c>
       <c r="P25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -3859,11 +4118,14 @@
       <c r="M26" s="5">
         <v>6.4</v>
       </c>
+      <c r="O26" t="s">
+        <v>281</v>
+      </c>
       <c r="P26" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -3900,8 +4162,11 @@
       <c r="M27" s="5">
         <v>8.1999999999999993</v>
       </c>
+      <c r="O27" t="s">
+        <v>282</v>
+      </c>
       <c r="P27" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3916,26 +4181,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8313B353-BF25-43AE-B003-13E2A48F1E77}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" customWidth="1"/>
+    <col min="10" max="11" width="8.88671875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3985,7 +4250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>420</v>
       </c>
@@ -4026,13 +4291,13 @@
         <v>9</v>
       </c>
       <c r="O2" t="s">
-        <v>125</v>
+        <v>242</v>
       </c>
       <c r="P2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>470</v>
       </c>
@@ -4070,13 +4335,13 @@
         <v>13</v>
       </c>
       <c r="O3" t="s">
-        <v>126</v>
+        <v>259</v>
       </c>
       <c r="P3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>505</v>
       </c>
@@ -4120,13 +4385,13 @@
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>127</v>
+        <v>260</v>
       </c>
       <c r="P4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -4169,11 +4434,14 @@
       <c r="N5" s="5">
         <v>16.829999999999998</v>
       </c>
+      <c r="O5" t="s">
+        <v>261</v>
+      </c>
       <c r="P5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -4214,10 +4482,10 @@
         <v>38</v>
       </c>
       <c r="P6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -4258,10 +4526,10 @@
         <v>25.1</v>
       </c>
       <c r="P7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -4301,11 +4569,14 @@
       <c r="M8" s="5">
         <v>11.61</v>
       </c>
+      <c r="O8" t="s">
+        <v>262</v>
+      </c>
       <c r="P8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -4345,11 +4616,14 @@
       <c r="N9" s="5">
         <v>16.8</v>
       </c>
+      <c r="O9" t="s">
+        <v>293</v>
+      </c>
       <c r="P9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -4389,11 +4663,14 @@
       <c r="N10" s="5">
         <v>29.2</v>
       </c>
+      <c r="O10" t="s">
+        <v>263</v>
+      </c>
       <c r="P10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -4436,11 +4713,14 @@
       <c r="N11" s="5">
         <v>17.399999999999999</v>
       </c>
+      <c r="O11" t="s">
+        <v>264</v>
+      </c>
       <c r="P11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -4480,11 +4760,14 @@
       <c r="N12" s="5">
         <v>4.25</v>
       </c>
+      <c r="O12" t="s">
+        <v>265</v>
+      </c>
       <c r="P12" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>114</v>
       </c>
@@ -4521,11 +4804,14 @@
       <c r="N13" s="5">
         <v>21</v>
       </c>
+      <c r="O13" t="s">
+        <v>294</v>
+      </c>
       <c r="P13" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -4566,10 +4852,10 @@
         <v>9.2799999999999994</v>
       </c>
       <c r="P14" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -4607,10 +4893,10 @@
         <v>10.7</v>
       </c>
       <c r="P15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -4650,11 +4936,14 @@
       <c r="N16" s="5">
         <v>13</v>
       </c>
+      <c r="O16" t="s">
+        <v>266</v>
+      </c>
       <c r="P16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -4695,10 +4984,10 @@
         <v>8.36</v>
       </c>
       <c r="P17" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -4741,11 +5030,14 @@
       <c r="N18" s="5">
         <v>14.2</v>
       </c>
+      <c r="O18" t="s">
+        <v>267</v>
+      </c>
       <c r="P18" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -4785,11 +5077,14 @@
       <c r="N19" s="5">
         <v>8.4</v>
       </c>
+      <c r="O19" t="s">
+        <v>306</v>
+      </c>
       <c r="P19" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -4826,11 +5121,14 @@
       <c r="M20" s="5">
         <v>10</v>
       </c>
+      <c r="O20" t="s">
+        <v>269</v>
+      </c>
       <c r="P20" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -4867,11 +5165,14 @@
       <c r="M21" s="5">
         <v>9.75</v>
       </c>
+      <c r="O21" t="s">
+        <v>270</v>
+      </c>
       <c r="P21" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -4911,11 +5212,14 @@
       <c r="N22" s="5">
         <v>32</v>
       </c>
+      <c r="O22" t="s">
+        <v>271</v>
+      </c>
       <c r="P22" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -4955,11 +5259,14 @@
       <c r="N23" s="5">
         <v>29</v>
       </c>
+      <c r="O23" t="s">
+        <v>283</v>
+      </c>
       <c r="P23" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -4999,11 +5306,14 @@
       <c r="N24" s="5">
         <v>11.15</v>
       </c>
+      <c r="O24" t="s">
+        <v>284</v>
+      </c>
       <c r="P24" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -5043,11 +5353,14 @@
       <c r="N25" s="5">
         <v>7.4</v>
       </c>
+      <c r="O25" t="s">
+        <v>285</v>
+      </c>
       <c r="P25" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -5087,11 +5400,14 @@
       <c r="N26" s="5">
         <v>10</v>
       </c>
+      <c r="O26" t="s">
+        <v>272</v>
+      </c>
       <c r="P26" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -5131,11 +5447,14 @@
       <c r="N27" s="5">
         <v>7.4</v>
       </c>
+      <c r="O27" t="s">
+        <v>287</v>
+      </c>
       <c r="P27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -5175,11 +5494,14 @@
       <c r="N28" s="5">
         <v>4.4000000000000004</v>
       </c>
+      <c r="O28" t="s">
+        <v>273</v>
+      </c>
       <c r="P28" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>87</v>
       </c>
@@ -5216,14 +5538,20 @@
       <c r="M29" s="5">
         <v>8.6</v>
       </c>
+      <c r="O29" t="s">
+        <v>290</v>
+      </c>
       <c r="P29" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>88</v>
       </c>
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
       <c r="C30">
         <v>937</v>
       </c>
@@ -5260,11 +5588,14 @@
       <c r="N30" s="5">
         <v>17.2</v>
       </c>
+      <c r="O30" t="s">
+        <v>288</v>
+      </c>
       <c r="P30" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -5304,11 +5635,14 @@
       <c r="N31" s="5">
         <v>11.14</v>
       </c>
+      <c r="O31" t="s">
+        <v>291</v>
+      </c>
       <c r="P31" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -5351,11 +5685,14 @@
       <c r="N32" s="5">
         <v>12.5</v>
       </c>
+      <c r="O32" t="s">
+        <v>292</v>
+      </c>
       <c r="P32" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -5392,11 +5729,14 @@
       <c r="M33" s="5">
         <v>11.8</v>
       </c>
+      <c r="O33" t="s">
+        <v>286</v>
+      </c>
       <c r="P33" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -5436,11 +5776,14 @@
       <c r="N34" s="5">
         <v>9.9</v>
       </c>
+      <c r="O34" t="s">
+        <v>274</v>
+      </c>
       <c r="P34" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>93</v>
       </c>
@@ -5480,8 +5823,11 @@
       <c r="N35" s="5">
         <v>13.5</v>
       </c>
+      <c r="O35" t="s">
+        <v>289</v>
+      </c>
       <c r="P35" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -5497,24 +5843,26 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="3"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5564,7 +5912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -5601,11 +5949,14 @@
       <c r="M2" s="5">
         <v>8.0399999999999991</v>
       </c>
+      <c r="O2" t="s">
+        <v>295</v>
+      </c>
       <c r="P2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -5642,11 +5993,14 @@
       <c r="M3" s="5">
         <v>12.29</v>
       </c>
+      <c r="O3" t="s">
+        <v>275</v>
+      </c>
       <c r="P3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -5683,11 +6037,14 @@
       <c r="M4" s="5">
         <v>16.079999999999998</v>
       </c>
+      <c r="O4" t="s">
+        <v>298</v>
+      </c>
       <c r="P4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -5727,11 +6084,14 @@
       <c r="N5" s="5">
         <v>21</v>
       </c>
+      <c r="O5" t="s">
+        <v>296</v>
+      </c>
       <c r="P5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -5771,11 +6131,14 @@
       <c r="N6" s="5">
         <v>15.91</v>
       </c>
+      <c r="O6" t="s">
+        <v>297</v>
+      </c>
       <c r="P6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>122</v>
       </c>
@@ -5815,11 +6178,14 @@
       <c r="N7" s="5">
         <v>17.829999999999998</v>
       </c>
+      <c r="O7" t="s">
+        <v>299</v>
+      </c>
       <c r="P7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -5859,11 +6225,14 @@
       <c r="N8" s="5">
         <v>16.5</v>
       </c>
+      <c r="O8" t="s">
+        <v>300</v>
+      </c>
       <c r="P8" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>118</v>
       </c>
@@ -5903,11 +6272,14 @@
       <c r="N9" s="5">
         <v>21</v>
       </c>
+      <c r="O9" t="s">
+        <v>301</v>
+      </c>
       <c r="P9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>119</v>
       </c>
@@ -5947,11 +6319,14 @@
       <c r="N10" s="5">
         <v>17.5</v>
       </c>
+      <c r="O10" t="s">
+        <v>302</v>
+      </c>
       <c r="P10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -5991,11 +6366,14 @@
       <c r="N11" s="5">
         <v>21</v>
       </c>
+      <c r="O11" t="s">
+        <v>303</v>
+      </c>
       <c r="P11" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>121</v>
       </c>
@@ -6035,11 +6413,14 @@
       <c r="N12" s="5">
         <v>27.66</v>
       </c>
+      <c r="O12" t="s">
+        <v>304</v>
+      </c>
       <c r="P12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -6079,8 +6460,11 @@
       <c r="N13" s="5">
         <v>18</v>
       </c>
+      <c r="O13" t="s">
+        <v>305</v>
+      </c>
       <c r="P13" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/dinghies.xlsx
+++ b/dinghies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\iain\Development\dinghy-search\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soarsi\workspace\github\dinghy-search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B009F385-DD3F-49ED-90E5-5EB0990D3884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B0DA13-D78C-480A-83AA-D79E8F01CC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="948" windowWidth="14340" windowHeight="8880" xr2:uid="{424A2331-99F2-4D2E-BF59-9192B1CDA9D6}"/>
+    <workbookView xWindow="-27300" yWindow="2025" windowWidth="25365" windowHeight="13170" xr2:uid="{424A2331-99F2-4D2E-BF59-9192B1CDA9D6}"/>
   </bookViews>
   <sheets>
     <sheet name="RS" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="314">
   <si>
     <t>name</t>
   </si>
@@ -441,42 +441,9 @@
     <t>/images/logos/RS800.png</t>
   </si>
   <si>
-    <t>/images/logos/RS-Feva-logo.jpg</t>
-  </si>
-  <si>
-    <t>/images/logos/RS-neo-horizontal.png</t>
-  </si>
-  <si>
-    <t>/images/logos/RSQuest.png</t>
-  </si>
-  <si>
-    <t>/images/logos/RSVenture.png</t>
-  </si>
-  <si>
-    <t>/images/logos/RSTera.png</t>
-  </si>
-  <si>
-    <t>/images/logos/Toura-Master-300x171.png</t>
-  </si>
-  <si>
-    <t>/images/logos/RSVareo-logo.png</t>
-  </si>
-  <si>
-    <t>/images/logos/Logo-RS-Zest.png</t>
-  </si>
-  <si>
     <t>/images/logos/RS100.png</t>
   </si>
   <si>
-    <t>/images/logos/RS400-magenta.png</t>
-  </si>
-  <si>
-    <t>/images/logos/RS600_Logo_New_Black-300x114.png</t>
-  </si>
-  <si>
-    <t>/images/logos/RSVision.jpg</t>
-  </si>
-  <si>
     <t>/images/aero-5.jpg</t>
   </si>
   <si>
@@ -970,6 +937,51 @@
   </si>
   <si>
     <t>/images/logos/rs-cat16.png</t>
+  </si>
+  <si>
+    <t>/images/logos/49er-49erfx.png</t>
+  </si>
+  <si>
+    <t>/images/logos/enterprise.png</t>
+  </si>
+  <si>
+    <t>/images/logos/firefly.png</t>
+  </si>
+  <si>
+    <t>/images/logos/comet-trio.png</t>
+  </si>
+  <si>
+    <t>/images/logos/rs-feva.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/rs-neo.png</t>
+  </si>
+  <si>
+    <t>/images/logos/rs-quest.png</t>
+  </si>
+  <si>
+    <t>/images/logos/rs-tera.png</t>
+  </si>
+  <si>
+    <t>/images/logos/rs-toura.png</t>
+  </si>
+  <si>
+    <t>/images/logos/rs-vareo.png</t>
+  </si>
+  <si>
+    <t>/images/logos/rs-venture.png</t>
+  </si>
+  <si>
+    <t>/images/logos/rs-vision.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/rs-zest.png</t>
+  </si>
+  <si>
+    <t>/images/logos/RS400.png</t>
+  </si>
+  <si>
+    <t>/images/logos/RS600.png</t>
   </si>
 </sst>
 </file>
@@ -1360,27 +1372,27 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="3" customWidth="1"/>
     <col min="11" max="11" width="6" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1430,7 +1442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -1474,10 +1486,10 @@
         <v>127</v>
       </c>
       <c r="P2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1518,13 +1530,13 @@
         <v>5.2</v>
       </c>
       <c r="O3" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="P3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1565,13 +1577,13 @@
         <v>6.3</v>
       </c>
       <c r="O4" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="P4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1612,13 +1624,13 @@
         <v>7.4</v>
       </c>
       <c r="O5" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="P5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1659,13 +1671,13 @@
         <v>8.9</v>
       </c>
       <c r="O6" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="P6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1706,13 +1718,13 @@
         <v>9</v>
       </c>
       <c r="O7" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="P7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1753,13 +1765,13 @@
         <v>12.82</v>
       </c>
       <c r="O8" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="P8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1803,13 +1815,13 @@
         <v>7</v>
       </c>
       <c r="O9" t="s">
-        <v>133</v>
+        <v>303</v>
       </c>
       <c r="P9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1847,13 +1859,13 @@
         <v>6</v>
       </c>
       <c r="O10" t="s">
-        <v>134</v>
+        <v>304</v>
       </c>
       <c r="P10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1894,13 +1906,13 @@
         <v>11</v>
       </c>
       <c r="O11" t="s">
-        <v>135</v>
+        <v>305</v>
       </c>
       <c r="P11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1941,13 +1953,13 @@
         <v>4.8</v>
       </c>
       <c r="O12" t="s">
-        <v>137</v>
+        <v>306</v>
       </c>
       <c r="P12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1988,13 +2000,13 @@
         <v>3.7</v>
       </c>
       <c r="O13" t="s">
-        <v>137</v>
+        <v>306</v>
       </c>
       <c r="P13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -2035,13 +2047,13 @@
         <v>14.6</v>
       </c>
       <c r="O14" t="s">
-        <v>138</v>
+        <v>307</v>
       </c>
       <c r="P14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -2085,13 +2097,13 @@
         <v>9.9</v>
       </c>
       <c r="O15" t="s">
-        <v>139</v>
+        <v>308</v>
       </c>
       <c r="P15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -2132,13 +2144,13 @@
         <v>14</v>
       </c>
       <c r="O16" t="s">
-        <v>136</v>
+        <v>309</v>
       </c>
       <c r="P16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2182,13 +2194,13 @@
         <v>12</v>
       </c>
       <c r="O17" t="s">
+        <v>310</v>
+      </c>
+      <c r="P17" t="s">
         <v>144</v>
       </c>
-      <c r="P17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -2226,13 +2238,13 @@
         <v>7.1</v>
       </c>
       <c r="O18" t="s">
-        <v>140</v>
+        <v>311</v>
       </c>
       <c r="P18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2273,13 +2285,13 @@
         <v>12.5</v>
       </c>
       <c r="O19" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="P19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2323,13 +2335,13 @@
         <v>12.5</v>
       </c>
       <c r="O20" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="P20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -2376,10 +2388,10 @@
         <v>128</v>
       </c>
       <c r="P21" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -2423,10 +2435,10 @@
         <v>129</v>
       </c>
       <c r="P22" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -2470,13 +2482,13 @@
         <v>13.94</v>
       </c>
       <c r="O23" t="s">
-        <v>142</v>
+        <v>312</v>
       </c>
       <c r="P23" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -2523,10 +2535,10 @@
         <v>130</v>
       </c>
       <c r="P24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -2567,13 +2579,13 @@
         <v>12.14</v>
       </c>
       <c r="O25" t="s">
-        <v>143</v>
+        <v>313</v>
       </c>
       <c r="P25" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2620,10 +2632,10 @@
         <v>131</v>
       </c>
       <c r="P26" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2670,7 +2682,7 @@
         <v>132</v>
       </c>
       <c r="P27" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2690,16 +2702,16 @@
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.109375" style="3"/>
-    <col min="13" max="13" width="9.109375" style="5"/>
-    <col min="15" max="15" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="3"/>
+    <col min="13" max="13" width="9.140625" style="5"/>
+    <col min="15" max="15" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2749,7 +2761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -2793,10 +2805,10 @@
         <v>124</v>
       </c>
       <c r="P2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -2840,10 +2852,10 @@
         <v>124</v>
       </c>
       <c r="P3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -2887,7 +2899,7 @@
         <v>124</v>
       </c>
       <c r="P4" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2904,24 +2916,24 @@
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="10" max="11" width="8.88671875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="11" width="8.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="5" customWidth="1"/>
+    <col min="15" max="15" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2971,7 +2983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -3012,13 +3024,13 @@
         <v>10.4</v>
       </c>
       <c r="O2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="P2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -3059,15 +3071,15 @@
         <v>6.8</v>
       </c>
       <c r="O3" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="P3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C4">
         <v>1210</v>
@@ -3103,13 +3115,13 @@
         <v>6.5</v>
       </c>
       <c r="O4" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="P4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -3150,13 +3162,13 @@
         <v>10.3</v>
       </c>
       <c r="O5" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="P5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -3200,13 +3212,13 @@
         <v>13.2</v>
       </c>
       <c r="O6" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="P6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -3247,13 +3259,13 @@
         <v>8.1</v>
       </c>
       <c r="O7" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -3291,13 +3303,13 @@
         <v>7</v>
       </c>
       <c r="O8" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="P8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -3338,13 +3350,13 @@
         <v>10</v>
       </c>
       <c r="O9" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="P9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -3385,13 +3397,13 @@
         <v>6.45</v>
       </c>
       <c r="O10" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="P10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -3432,13 +3444,13 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="O11" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="P11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -3476,13 +3488,13 @@
         <v>10</v>
       </c>
       <c r="O12" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="P12" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>112</v>
       </c>
@@ -3517,13 +3529,13 @@
         <v>8.25</v>
       </c>
       <c r="O13" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="P13" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -3564,13 +3576,13 @@
         <v>11</v>
       </c>
       <c r="O14" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="P14" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -3608,13 +3620,13 @@
         <v>7</v>
       </c>
       <c r="O15" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="P15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -3658,13 +3670,13 @@
         <v>15.5</v>
       </c>
       <c r="O16" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="P16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -3702,13 +3714,13 @@
         <v>8.9499999999999993</v>
       </c>
       <c r="O17" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="P17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -3749,13 +3761,13 @@
         <v>3.3</v>
       </c>
       <c r="O18" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="P18" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -3796,13 +3808,13 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="O19" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="P19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -3840,13 +3852,13 @@
         <v>8.36</v>
       </c>
       <c r="O20" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="P20" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -3884,13 +3896,13 @@
         <v>8.5</v>
       </c>
       <c r="O21" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="P21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -3931,13 +3943,13 @@
         <v>6.5</v>
       </c>
       <c r="O22" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="P22" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -3978,13 +3990,13 @@
         <v>8.2200000000000006</v>
       </c>
       <c r="O23" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="P23" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -4025,13 +4037,13 @@
         <v>4.2</v>
       </c>
       <c r="O24" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="P24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -4072,13 +4084,13 @@
         <v>5.3</v>
       </c>
       <c r="O25" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="P25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -4119,13 +4131,13 @@
         <v>6.4</v>
       </c>
       <c r="O26" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="P26" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -4163,10 +4175,10 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="O27" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="P27" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -4181,26 +4193,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8313B353-BF25-43AE-B003-13E2A48F1E77}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" customWidth="1"/>
-    <col min="10" max="11" width="8.88671875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
+    <col min="10" max="11" width="8.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="5" customWidth="1"/>
+    <col min="15" max="15" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4250,7 +4262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>420</v>
       </c>
@@ -4291,13 +4303,13 @@
         <v>9</v>
       </c>
       <c r="O2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="P2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>470</v>
       </c>
@@ -4335,13 +4347,13 @@
         <v>13</v>
       </c>
       <c r="O3" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="P3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>505</v>
       </c>
@@ -4385,13 +4397,13 @@
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="P4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -4435,13 +4447,13 @@
         <v>16.829999999999998</v>
       </c>
       <c r="O5" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="P5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -4481,11 +4493,14 @@
       <c r="N6" s="5">
         <v>38</v>
       </c>
+      <c r="O6" t="s">
+        <v>299</v>
+      </c>
       <c r="P6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -4525,11 +4540,14 @@
       <c r="N7" s="5">
         <v>25.1</v>
       </c>
+      <c r="O7" t="s">
+        <v>299</v>
+      </c>
       <c r="P7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -4570,13 +4588,13 @@
         <v>11.61</v>
       </c>
       <c r="O8" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="P8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -4617,13 +4635,13 @@
         <v>16.8</v>
       </c>
       <c r="O9" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="P9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -4664,13 +4682,13 @@
         <v>29.2</v>
       </c>
       <c r="O10" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="P10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -4714,13 +4732,13 @@
         <v>17.399999999999999</v>
       </c>
       <c r="O11" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="P11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -4761,13 +4779,13 @@
         <v>4.25</v>
       </c>
       <c r="O12" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="P12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>114</v>
       </c>
@@ -4805,13 +4823,13 @@
         <v>21</v>
       </c>
       <c r="O13" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="P13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -4851,11 +4869,14 @@
       <c r="N14" s="5">
         <v>9.2799999999999994</v>
       </c>
+      <c r="O14" t="s">
+        <v>302</v>
+      </c>
       <c r="P14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -4892,11 +4913,14 @@
       <c r="M15" s="5">
         <v>10.7</v>
       </c>
+      <c r="O15" t="s">
+        <v>300</v>
+      </c>
       <c r="P15" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -4937,13 +4961,13 @@
         <v>13</v>
       </c>
       <c r="O16" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="P16" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -4983,11 +5007,14 @@
       <c r="M17" s="5">
         <v>8.36</v>
       </c>
+      <c r="O17" t="s">
+        <v>301</v>
+      </c>
       <c r="P17" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -5031,13 +5058,13 @@
         <v>14.2</v>
       </c>
       <c r="O18" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="P18" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -5078,13 +5105,13 @@
         <v>8.4</v>
       </c>
       <c r="O19" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="P19" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -5122,13 +5149,13 @@
         <v>10</v>
       </c>
       <c r="O20" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="P20" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -5166,13 +5193,13 @@
         <v>9.75</v>
       </c>
       <c r="O21" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="P21" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -5213,13 +5240,13 @@
         <v>32</v>
       </c>
       <c r="O22" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="P22" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -5260,13 +5287,13 @@
         <v>29</v>
       </c>
       <c r="O23" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="P23" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -5307,13 +5334,13 @@
         <v>11.15</v>
       </c>
       <c r="O24" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="P24" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -5354,13 +5381,13 @@
         <v>7.4</v>
       </c>
       <c r="O25" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="P25" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -5401,13 +5428,13 @@
         <v>10</v>
       </c>
       <c r="O26" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="P26" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -5448,13 +5475,13 @@
         <v>7.4</v>
       </c>
       <c r="O27" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="P27" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -5495,13 +5522,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="O28" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="P28" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>87</v>
       </c>
@@ -5539,13 +5566,13 @@
         <v>8.6</v>
       </c>
       <c r="O29" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="P29" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -5589,13 +5616,13 @@
         <v>17.2</v>
       </c>
       <c r="O30" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="P30" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -5636,13 +5663,13 @@
         <v>11.14</v>
       </c>
       <c r="O31" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="P31" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -5686,13 +5713,13 @@
         <v>12.5</v>
       </c>
       <c r="O32" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="P32" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -5730,13 +5757,13 @@
         <v>11.8</v>
       </c>
       <c r="O33" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="P33" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -5777,13 +5804,13 @@
         <v>9.9</v>
       </c>
       <c r="O34" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="P34" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>93</v>
       </c>
@@ -5824,10 +5851,10 @@
         <v>13.5</v>
       </c>
       <c r="O35" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="P35" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -5846,23 +5873,23 @@
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
     <col min="10" max="11" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5912,7 +5939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -5950,13 +5977,13 @@
         <v>8.0399999999999991</v>
       </c>
       <c r="O2" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="P2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -5994,13 +6021,13 @@
         <v>12.29</v>
       </c>
       <c r="O3" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="P3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -6038,13 +6065,13 @@
         <v>16.079999999999998</v>
       </c>
       <c r="O4" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="P4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -6085,13 +6112,13 @@
         <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="P5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -6132,13 +6159,13 @@
         <v>15.91</v>
       </c>
       <c r="O6" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="P6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>122</v>
       </c>
@@ -6179,13 +6206,13 @@
         <v>17.829999999999998</v>
       </c>
       <c r="O7" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="P7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -6226,13 +6253,13 @@
         <v>16.5</v>
       </c>
       <c r="O8" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="P8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>118</v>
       </c>
@@ -6273,13 +6300,13 @@
         <v>21</v>
       </c>
       <c r="O9" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="P9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>119</v>
       </c>
@@ -6320,13 +6347,13 @@
         <v>17.5</v>
       </c>
       <c r="O10" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="P10" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -6367,13 +6394,13 @@
         <v>21</v>
       </c>
       <c r="O11" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="P11" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>121</v>
       </c>
@@ -6414,13 +6441,13 @@
         <v>27.66</v>
       </c>
       <c r="O12" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="P12" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -6461,10 +6488,10 @@
         <v>18</v>
       </c>
       <c r="O13" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="P13" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/dinghies.xlsx
+++ b/dinghies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soarsi\workspace\github\dinghy-search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B0DA13-D78C-480A-83AA-D79E8F01CC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B2C3CD-B714-4868-86DC-B99608FEE647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27300" yWindow="2025" windowWidth="25365" windowHeight="13170" xr2:uid="{424A2331-99F2-4D2E-BF59-9192B1CDA9D6}"/>
+    <workbookView xWindow="2430" yWindow="1875" windowWidth="25365" windowHeight="13170" activeTab="4" xr2:uid="{424A2331-99F2-4D2E-BF59-9192B1CDA9D6}"/>
   </bookViews>
   <sheets>
     <sheet name="RS" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="307">
   <si>
     <t>name</t>
   </si>
@@ -795,9 +795,6 @@
     <t>/images/logos/29erlogo.jpg</t>
   </si>
   <si>
-    <t>/images/logos/albacore.jog</t>
-  </si>
-  <si>
     <t>/images/logos/b14.jpg</t>
   </si>
   <si>
@@ -834,18 +831,12 @@
     <t>/images/logos/wanderer.jpg</t>
   </si>
   <si>
-    <t>/images/logos/dart-15.jpg</t>
-  </si>
-  <si>
     <t>/images/logos/international-moth.png</t>
   </si>
   <si>
     <t>/images/logos/k1-logo.png</t>
   </si>
   <si>
-    <t>/images/logos/lightning-369.png</t>
-  </si>
-  <si>
     <t>/images/logos/ok-dinghy.jpg</t>
   </si>
   <si>
@@ -900,30 +891,6 @@
     <t>/images/logos/hurricane.jpg</t>
   </si>
   <si>
-    <t>/images/logos/nacra-15.jpg</t>
-  </si>
-  <si>
-    <t>/images/logos/dart-18.png</t>
-  </si>
-  <si>
-    <t>/images/logos/nacra-17.png</t>
-  </si>
-  <si>
-    <t>/images/logos/nacra-500.png</t>
-  </si>
-  <si>
-    <t>/images/logos/nacra-570.png</t>
-  </si>
-  <si>
-    <t>/images/logos/nacra-f16.png</t>
-  </si>
-  <si>
-    <t>/images/logos/nacra-f18.png</t>
-  </si>
-  <si>
-    <t>/images/logos/nacra-f20.png</t>
-  </si>
-  <si>
     <t>/images/logos/spitfire-logo.jpg</t>
   </si>
   <si>
@@ -982,6 +949,18 @@
   </si>
   <si>
     <t>/images/logos/RS600.png</t>
+  </si>
+  <si>
+    <t>/images/logos/albacore.jpg</t>
+  </si>
+  <si>
+    <t>/images/logos/lightning-368.png</t>
+  </si>
+  <si>
+    <t>/images/logos/dart.png</t>
+  </si>
+  <si>
+    <t>/images/logos/nacra.png</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170DDF5A-0F38-402E-9EB4-88FDC06AA77D}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
@@ -1530,7 +1509,7 @@
         <v>5.2</v>
       </c>
       <c r="O3" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="P3" t="s">
         <v>134</v>
@@ -1577,7 +1556,7 @@
         <v>6.3</v>
       </c>
       <c r="O4" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="P4" t="s">
         <v>135</v>
@@ -1624,7 +1603,7 @@
         <v>7.4</v>
       </c>
       <c r="O5" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="P5" t="s">
         <v>136</v>
@@ -1671,7 +1650,7 @@
         <v>8.9</v>
       </c>
       <c r="O6" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="P6" t="s">
         <v>137</v>
@@ -1718,7 +1697,7 @@
         <v>9</v>
       </c>
       <c r="O7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="P7" t="s">
         <v>155</v>
@@ -1765,7 +1744,7 @@
         <v>12.82</v>
       </c>
       <c r="O8" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="P8" t="s">
         <v>156</v>
@@ -1815,7 +1794,7 @@
         <v>7</v>
       </c>
       <c r="O9" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="P9" t="s">
         <v>139</v>
@@ -1859,7 +1838,7 @@
         <v>6</v>
       </c>
       <c r="O10" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="P10" t="s">
         <v>146</v>
@@ -1906,7 +1885,7 @@
         <v>11</v>
       </c>
       <c r="O11" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="P11" t="s">
         <v>140</v>
@@ -1953,7 +1932,7 @@
         <v>4.8</v>
       </c>
       <c r="O12" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="P12" t="s">
         <v>125</v>
@@ -2000,7 +1979,7 @@
         <v>3.7</v>
       </c>
       <c r="O13" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="P13" t="s">
         <v>126</v>
@@ -2047,7 +2026,7 @@
         <v>14.6</v>
       </c>
       <c r="O14" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="P14" t="s">
         <v>141</v>
@@ -2097,7 +2076,7 @@
         <v>9.9</v>
       </c>
       <c r="O15" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="P15" t="s">
         <v>142</v>
@@ -2144,7 +2123,7 @@
         <v>14</v>
       </c>
       <c r="O16" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="P16" t="s">
         <v>143</v>
@@ -2194,7 +2173,7 @@
         <v>12</v>
       </c>
       <c r="O17" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="P17" t="s">
         <v>144</v>
@@ -2238,7 +2217,7 @@
         <v>7.1</v>
       </c>
       <c r="O18" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="P18" t="s">
         <v>145</v>
@@ -2482,7 +2461,7 @@
         <v>13.94</v>
       </c>
       <c r="O23" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="P23" t="s">
         <v>150</v>
@@ -2579,7 +2558,7 @@
         <v>12.14</v>
       </c>
       <c r="O25" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="P25" t="s">
         <v>152</v>
@@ -2913,7 +2892,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3397,7 +3376,7 @@
         <v>6.45</v>
       </c>
       <c r="O10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P10" t="s">
         <v>164</v>
@@ -3529,7 +3508,7 @@
         <v>8.25</v>
       </c>
       <c r="O13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="P13" t="s">
         <v>175</v>
@@ -3576,7 +3555,7 @@
         <v>11</v>
       </c>
       <c r="O14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P14" t="s">
         <v>165</v>
@@ -3620,7 +3599,7 @@
         <v>7</v>
       </c>
       <c r="O15" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="P15" t="s">
         <v>182</v>
@@ -3714,7 +3693,7 @@
         <v>8.9499999999999993</v>
       </c>
       <c r="O17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P17" t="s">
         <v>166</v>
@@ -3943,7 +3922,7 @@
         <v>6.5</v>
       </c>
       <c r="O22" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P22" t="s">
         <v>171</v>
@@ -4037,7 +4016,7 @@
         <v>4.2</v>
       </c>
       <c r="O24" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="P24" t="s">
         <v>177</v>
@@ -4084,7 +4063,7 @@
         <v>5.3</v>
       </c>
       <c r="O25" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="P25" t="s">
         <v>177</v>
@@ -4131,7 +4110,7 @@
         <v>6.4</v>
       </c>
       <c r="O26" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="P26" t="s">
         <v>177</v>
@@ -4175,7 +4154,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="O27" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P27" t="s">
         <v>178</v>
@@ -4194,7 +4173,7 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4494,7 +4473,7 @@
         <v>38</v>
       </c>
       <c r="O6" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="P6" t="s">
         <v>187</v>
@@ -4541,7 +4520,7 @@
         <v>25.1</v>
       </c>
       <c r="O7" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="P7" t="s">
         <v>188</v>
@@ -4588,7 +4567,7 @@
         <v>11.61</v>
       </c>
       <c r="O8" t="s">
-        <v>251</v>
+        <v>303</v>
       </c>
       <c r="P8" t="s">
         <v>190</v>
@@ -4635,7 +4614,7 @@
         <v>16.8</v>
       </c>
       <c r="O9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P9" t="s">
         <v>218</v>
@@ -4682,7 +4661,7 @@
         <v>29.2</v>
       </c>
       <c r="O10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P10" t="s">
         <v>189</v>
@@ -4732,7 +4711,7 @@
         <v>17.399999999999999</v>
       </c>
       <c r="O11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P11" t="s">
         <v>193</v>
@@ -4779,7 +4758,7 @@
         <v>4.25</v>
       </c>
       <c r="O12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P12" t="s">
         <v>194</v>
@@ -4823,7 +4802,7 @@
         <v>21</v>
       </c>
       <c r="O13" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="P13" t="s">
         <v>195</v>
@@ -4870,7 +4849,7 @@
         <v>9.2799999999999994</v>
       </c>
       <c r="O14" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="P14" t="s">
         <v>196</v>
@@ -4914,7 +4893,7 @@
         <v>10.7</v>
       </c>
       <c r="O15" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="P15" t="s">
         <v>197</v>
@@ -4961,7 +4940,7 @@
         <v>13</v>
       </c>
       <c r="O16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P16" t="s">
         <v>198</v>
@@ -5008,7 +4987,7 @@
         <v>8.36</v>
       </c>
       <c r="O17" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="P17" t="s">
         <v>201</v>
@@ -5058,7 +5037,7 @@
         <v>14.2</v>
       </c>
       <c r="O18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P18" t="s">
         <v>199</v>
@@ -5105,7 +5084,7 @@
         <v>8.4</v>
       </c>
       <c r="O19" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="P19" t="s">
         <v>200</v>
@@ -5149,7 +5128,7 @@
         <v>10</v>
       </c>
       <c r="O20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P20" t="s">
         <v>202</v>
@@ -5193,7 +5172,7 @@
         <v>9.75</v>
       </c>
       <c r="O21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P21" t="s">
         <v>203</v>
@@ -5240,7 +5219,7 @@
         <v>32</v>
       </c>
       <c r="O22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P22" t="s">
         <v>204</v>
@@ -5287,7 +5266,7 @@
         <v>29</v>
       </c>
       <c r="O23" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P23" t="s">
         <v>217</v>
@@ -5334,7 +5313,7 @@
         <v>11.15</v>
       </c>
       <c r="O24" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="P24" t="s">
         <v>205</v>
@@ -5381,7 +5360,7 @@
         <v>7.4</v>
       </c>
       <c r="O25" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="P25" t="s">
         <v>206</v>
@@ -5428,7 +5407,7 @@
         <v>10</v>
       </c>
       <c r="O26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P26" t="s">
         <v>207</v>
@@ -5475,7 +5454,7 @@
         <v>7.4</v>
       </c>
       <c r="O27" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="P27" t="s">
         <v>208</v>
@@ -5522,7 +5501,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="O28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P28" t="s">
         <v>209</v>
@@ -5566,7 +5545,7 @@
         <v>8.6</v>
       </c>
       <c r="O29" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P29" t="s">
         <v>210</v>
@@ -5616,7 +5595,7 @@
         <v>17.2</v>
       </c>
       <c r="O30" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P30" t="s">
         <v>211</v>
@@ -5663,7 +5642,7 @@
         <v>11.14</v>
       </c>
       <c r="O31" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="P31" t="s">
         <v>213</v>
@@ -5713,7 +5692,7 @@
         <v>12.5</v>
       </c>
       <c r="O32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P32" t="s">
         <v>212</v>
@@ -5757,7 +5736,7 @@
         <v>11.8</v>
       </c>
       <c r="O33" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P33" t="s">
         <v>214</v>
@@ -5804,7 +5783,7 @@
         <v>9.9</v>
       </c>
       <c r="O34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P34" t="s">
         <v>215</v>
@@ -5851,7 +5830,7 @@
         <v>13.5</v>
       </c>
       <c r="O35" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P35" t="s">
         <v>216</v>
@@ -5869,8 +5848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FB941B-56F6-41E4-82A9-4C2756BCA6AC}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5977,7 +5956,7 @@
         <v>8.0399999999999991</v>
       </c>
       <c r="O2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="P2" t="s">
         <v>219</v>
@@ -6021,7 +6000,7 @@
         <v>12.29</v>
       </c>
       <c r="O3" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="P3" t="s">
         <v>221</v>
@@ -6065,7 +6044,7 @@
         <v>16.079999999999998</v>
       </c>
       <c r="O4" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="P4" t="s">
         <v>222</v>
@@ -6112,7 +6091,7 @@
         <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P5" t="s">
         <v>223</v>
@@ -6159,7 +6138,7 @@
         <v>15.91</v>
       </c>
       <c r="O6" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="P6" t="s">
         <v>224</v>
@@ -6206,7 +6185,7 @@
         <v>17.829999999999998</v>
       </c>
       <c r="O7" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="P7" t="s">
         <v>225</v>
@@ -6253,7 +6232,7 @@
         <v>16.5</v>
       </c>
       <c r="O8" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="P8" t="s">
         <v>226</v>
@@ -6300,7 +6279,7 @@
         <v>21</v>
       </c>
       <c r="O9" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="P9" t="s">
         <v>227</v>
@@ -6347,7 +6326,7 @@
         <v>17.5</v>
       </c>
       <c r="O10" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="P10" t="s">
         <v>228</v>
@@ -6394,7 +6373,7 @@
         <v>21</v>
       </c>
       <c r="O11" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="P11" t="s">
         <v>229</v>
@@ -6441,7 +6420,7 @@
         <v>27.66</v>
       </c>
       <c r="O12" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="P12" t="s">
         <v>230</v>
@@ -6488,7 +6467,7 @@
         <v>18</v>
       </c>
       <c r="O13" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="P13" t="s">
         <v>220</v>
